--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Notes:</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>BGDPbES BAU Guaranteed Dispatch Percentage by Electricity Source</t>
-  </si>
-  <si>
-    <t>BAU Guaranteed Dispatch Perc</t>
   </si>
   <si>
     <t>source that is guaranteed (e.g. dispatched before any least-cost dispatching</t>
@@ -451,32 +448,32 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -490,106 +487,1751 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:AK12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>14</v>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C1">
+        <v>2016</v>
+      </c>
+      <c r="D1">
+        <v>2017</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+      <c r="F1">
+        <v>2019</v>
+      </c>
+      <c r="G1">
+        <v>2020</v>
+      </c>
+      <c r="H1">
+        <v>2021</v>
+      </c>
+      <c r="I1">
+        <v>2022</v>
+      </c>
+      <c r="J1">
+        <v>2023</v>
+      </c>
+      <c r="K1">
+        <v>2024</v>
+      </c>
+      <c r="L1">
+        <v>2025</v>
+      </c>
+      <c r="M1">
+        <v>2026</v>
+      </c>
+      <c r="N1">
+        <v>2027</v>
+      </c>
+      <c r="O1">
+        <v>2028</v>
+      </c>
+      <c r="P1">
+        <v>2029</v>
+      </c>
+      <c r="Q1">
+        <v>2030</v>
+      </c>
+      <c r="R1">
+        <v>2031</v>
+      </c>
+      <c r="S1">
+        <v>2032</v>
+      </c>
+      <c r="T1">
+        <v>2033</v>
+      </c>
+      <c r="U1">
+        <v>2034</v>
+      </c>
+      <c r="V1">
+        <v>2035</v>
+      </c>
+      <c r="W1">
+        <v>2036</v>
+      </c>
+      <c r="X1">
+        <v>2037</v>
+      </c>
+      <c r="Y1">
+        <v>2038</v>
+      </c>
+      <c r="Z1">
+        <v>2039</v>
+      </c>
+      <c r="AA1">
+        <v>2040</v>
+      </c>
+      <c r="AB1">
+        <v>2041</v>
+      </c>
+      <c r="AC1">
+        <v>2042</v>
+      </c>
+      <c r="AD1">
+        <v>2043</v>
+      </c>
+      <c r="AE1">
+        <v>2044</v>
+      </c>
+      <c r="AF1">
+        <v>2045</v>
+      </c>
+      <c r="AG1">
+        <v>2046</v>
+      </c>
+      <c r="AH1">
+        <v>2047</v>
+      </c>
+      <c r="AI1">
+        <v>2048</v>
+      </c>
+      <c r="AJ1">
+        <v>2049</v>
+      </c>
+      <c r="AK1">
+        <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="C2">
+        <f>$B2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:AK9" si="0">$B2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
+      <c r="C3">
+        <f t="shared" ref="C3:R12" si="1">$B3</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" ref="D9:AK12" si="2">$B9</f>
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -15,21 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Notes:</t>
-  </si>
-  <si>
-    <t>coal</t>
   </si>
   <si>
     <t>nuclear</t>
   </si>
   <si>
     <t>hydro</t>
-  </si>
-  <si>
-    <t>wind</t>
   </si>
   <si>
     <t>solar PV</t>
@@ -75,6 +69,18 @@
   </si>
   <si>
     <t>of the default amount or the amount specified here by the user.</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
   </si>
 </sst>
 </file>
@@ -433,7 +439,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -443,37 +449,37 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -487,7 +493,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +615,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -757,7 +763,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -905,7 +911,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1053,7 +1059,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1201,7 +1207,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1349,7 +1355,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1497,7 +1503,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1645,7 +1651,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1783,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <f t="shared" ref="D9:AK12" si="2">$B9</f>
+        <f t="shared" ref="D9:AK14" si="2">$B9</f>
         <v>0</v>
       </c>
       <c r="AK9">
@@ -1793,7 +1799,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1941,7 +1947,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2089,7 +2095,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2231,6 +2237,302 @@
         <v>0</v>
       </c>
       <c r="AK12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f>$B13</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f>$B14</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.4.3-us-v2\InputData\elec\BGDPbES\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BGDPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -86,7 +91,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,6 +145,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -187,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,7 +230,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -433,51 +441,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -495,15 +503,17 @@
   </sheetPr>
   <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B1" s="2">
         <v>2015</v>
       </c>
@@ -613,7 +623,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -761,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -909,155 +919,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1205,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1353,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1501,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1649,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1797,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1945,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2093,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2241,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2389,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>21</v>
       </c>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.4.3-us-v2\InputData\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Notes:</t>
   </si>
@@ -87,6 +87,18 @@
   <si>
     <t>offshore wind</t>
   </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>BAU Guaranteed Dispatch (dimensionless)</t>
+  </si>
 </sst>
 </file>
 
@@ -129,11 +141,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,51 +456,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -501,19 +516,20 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.59765625" customWidth="1"/>
-    <col min="2" max="2" width="11.265625" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B1" s="2">
         <v>2015</v>
       </c>
@@ -623,7 +639,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -771,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -919,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1067,155 +1083,155 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1363,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1511,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1659,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1807,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1955,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2103,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2251,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2399,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2544,10 +2560,350 @@
       </c>
       <c r="AK14">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96458CF2-F2C8-4081-BA0C-8387800D0428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BGDPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -103,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,6 +255,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -278,6 +307,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,10 +499,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -512,13 +560,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1236,147 +1286,147 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -1384,147 +1434,147 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
@@ -1532,147 +1582,147 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -2420,147 +2470,147 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <f>$B14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us-analysis\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96458CF2-F2C8-4081-BA0C-8387800D0428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257288C8-88AB-4482-B0B3-D67DC1B2D04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,7 +567,7 @@
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,147 +1730,147 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
         <f t="shared" ref="D9:AK14" si="2">$B9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -1878,147 +1878,147 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -2844,112 +2844,147 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <f>B17</f>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <f t="shared" ref="D17:AK17" si="3">C17</f>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us-analysis\InputData\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE2946C-4009-4B08-9F9B-2A5066E31C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7102C88E-D75E-40A9-8873-201EC80E4EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12550,8 +12550,8 @@
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:I13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12681,19 +12681,15 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>$B2</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:AK9" si="0">$B2</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G2">
@@ -12709,7 +12705,7 @@
         <v>0.55601384513017515</v>
       </c>
       <c r="J2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D2:AK9" si="0">$B2</f>
         <v>0</v>
       </c>
       <c r="K2">
@@ -12829,19 +12825,15 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:R12" si="1">$B3</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G3">
@@ -12857,7 +12849,7 @@
         <v>0.56121704084048196</v>
       </c>
       <c r="J3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C3:R17" si="1">$B3</f>
         <v>0</v>
       </c>
       <c r="K3">
@@ -12974,147 +12966,140 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.35">
@@ -13122,147 +13107,140 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.35">
@@ -13270,147 +13248,140 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.35">
@@ -13418,147 +13389,140 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.35">
@@ -13566,147 +13530,140 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.35">
@@ -13714,147 +13671,140 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
         <f t="shared" ref="D9:AK14" si="2">$B9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.35">
@@ -13862,147 +13812,140 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.35">
@@ -14013,31 +13956,24 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J11">
@@ -14161,19 +14097,15 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G12">
@@ -14309,19 +14241,15 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <f>$B13</f>
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G13">
@@ -14454,147 +14382,139 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <f>$B14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.35">
@@ -14828,147 +14748,143 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <f>B17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:AK17" si="3">C17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" ref="D17:AK17" si="3">F17</f>
+        <v>0</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7102C88E-D75E-40A9-8873-201EC80E4EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE88CF1-B83D-4142-BD38-2B2172C8BD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="STEO 7d" sheetId="3" r:id="rId2"/>
     <sheet name="Capacity" sheetId="4" r:id="rId3"/>
     <sheet name="Capacity Factors" sheetId="5" r:id="rId4"/>
-    <sheet name="Calculations" sheetId="6" r:id="rId5"/>
+    <sheet name="2020 Calculations" sheetId="6" r:id="rId5"/>
     <sheet name="BGDPbES" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="350">
   <si>
     <t>Notes:</t>
   </si>
@@ -1016,9 +1016,6 @@
     <t>coal</t>
   </si>
   <si>
-    <t>gas</t>
-  </si>
-  <si>
     <t>Source:</t>
   </si>
   <si>
@@ -1034,10 +1031,61 @@
     <t>Table 7d</t>
   </si>
   <si>
-    <t>For the US, we use EIA's STEO to align historical 2020 and 2021 generation, as well</t>
-  </si>
-  <si>
-    <t>as match projected 2022 generation.</t>
+    <t>Output Electricity Generation by Type[hard coal es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[natural gas nonpeaker es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[nuclear es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[hydro es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[onshore wind es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[solar PV es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[solar thermal es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[biomass es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[geothermal es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[petroleum es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[natural gas peaker es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[lignite es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[offshore wind es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[crude oil es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[heavy or residual fuel oil es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation by Type[municipal solid waste es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>For the US, we use EIA's STEO to align historical 2020 generation.</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Difference</t>
   </si>
 </sst>
 </file>
@@ -1431,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1446,10 +1494,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" t="s">
         <v>327</v>
-      </c>
-      <c r="B3" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1459,17 +1507,17 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1514,12 +1562,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -1530,35 +1573,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB677FF-8AA7-4A99-AA5C-83E52BC9397F}">
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:BB120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="42.6328125" customWidth="1"/>
+    <col min="23" max="23" width="51.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O4" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1595,8 +1648,26 @@
       <c r="M5">
         <v>2023</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O5">
+        <v>2020</v>
+      </c>
+      <c r="P5">
+        <v>2021</v>
+      </c>
+      <c r="Q5">
+        <v>2022</v>
+      </c>
+      <c r="S5">
+        <v>2020</v>
+      </c>
+      <c r="T5">
+        <v>2021</v>
+      </c>
+      <c r="U5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1610,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1624,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1664,8 +1735,128 @@
       <c r="M8">
         <v>1460.88</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O8">
+        <f>SUM(X10,X19)</f>
+        <v>1579.181</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8:Q8" si="0">SUM(Y10,Y19)</f>
+        <v>1440.0340000000001</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>1541.2669999999998</v>
+      </c>
+      <c r="S8">
+        <f>O8-J8</f>
+        <v>59.500999999999976</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ref="T8:U21" si="1">P8-K8</f>
+        <v>-33.605999999999995</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>54.226999999999862</v>
+      </c>
+      <c r="W8" t="s">
+        <v>260</v>
+      </c>
+      <c r="X8">
+        <v>2020</v>
+      </c>
+      <c r="Y8">
+        <v>2021</v>
+      </c>
+      <c r="Z8">
+        <v>2022</v>
+      </c>
+      <c r="AA8">
+        <v>2023</v>
+      </c>
+      <c r="AB8">
+        <v>2024</v>
+      </c>
+      <c r="AC8">
+        <v>2025</v>
+      </c>
+      <c r="AD8">
+        <v>2026</v>
+      </c>
+      <c r="AE8">
+        <v>2027</v>
+      </c>
+      <c r="AF8">
+        <v>2028</v>
+      </c>
+      <c r="AG8">
+        <v>2029</v>
+      </c>
+      <c r="AH8">
+        <v>2030</v>
+      </c>
+      <c r="AI8">
+        <v>2031</v>
+      </c>
+      <c r="AJ8">
+        <v>2032</v>
+      </c>
+      <c r="AK8">
+        <v>2033</v>
+      </c>
+      <c r="AL8">
+        <v>2034</v>
+      </c>
+      <c r="AM8">
+        <v>2035</v>
+      </c>
+      <c r="AN8">
+        <v>2036</v>
+      </c>
+      <c r="AO8">
+        <v>2037</v>
+      </c>
+      <c r="AP8">
+        <v>2038</v>
+      </c>
+      <c r="AQ8">
+        <v>2039</v>
+      </c>
+      <c r="AR8">
+        <v>2040</v>
+      </c>
+      <c r="AS8">
+        <v>2041</v>
+      </c>
+      <c r="AT8">
+        <v>2042</v>
+      </c>
+      <c r="AU8">
+        <v>2043</v>
+      </c>
+      <c r="AV8">
+        <v>2044</v>
+      </c>
+      <c r="AW8">
+        <v>2045</v>
+      </c>
+      <c r="AX8">
+        <v>2046</v>
+      </c>
+      <c r="AY8">
+        <v>2047</v>
+      </c>
+      <c r="AZ8">
+        <v>2048</v>
+      </c>
+      <c r="BA8">
+        <v>2049</v>
+      </c>
+      <c r="BB8">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1705,8 +1896,128 @@
       <c r="M9">
         <v>822.93</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O9">
+        <f>SUM(X9,X20)</f>
+        <v>803.27210000000002</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ref="P9:Q9" si="2">SUM(Y9,Y20)</f>
+        <v>946.13890000000004</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>804.96040000000005</v>
+      </c>
+      <c r="S9">
+        <f>O9-J9</f>
+        <v>35.572099999999978</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>53.338900000000081</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="1"/>
+        <v>-57.699599999999919</v>
+      </c>
+      <c r="W9" t="s">
+        <v>331</v>
+      </c>
+      <c r="X9">
+        <v>761.54100000000005</v>
+      </c>
+      <c r="Y9">
+        <v>895.44500000000005</v>
+      </c>
+      <c r="Z9">
+        <v>759.822</v>
+      </c>
+      <c r="AA9">
+        <v>726.36900000000003</v>
+      </c>
+      <c r="AB9">
+        <v>700.01300000000003</v>
+      </c>
+      <c r="AC9">
+        <v>623.98400000000004</v>
+      </c>
+      <c r="AD9">
+        <v>597.62199999999996</v>
+      </c>
+      <c r="AE9">
+        <v>573.23</v>
+      </c>
+      <c r="AF9">
+        <v>530.28499999999997</v>
+      </c>
+      <c r="AG9">
+        <v>485.60899999999998</v>
+      </c>
+      <c r="AH9">
+        <v>459.86500000000001</v>
+      </c>
+      <c r="AI9">
+        <v>460.017</v>
+      </c>
+      <c r="AJ9">
+        <v>452.399</v>
+      </c>
+      <c r="AK9">
+        <v>452.02499999999998</v>
+      </c>
+      <c r="AL9">
+        <v>432.67099999999999</v>
+      </c>
+      <c r="AM9">
+        <v>426.53899999999999</v>
+      </c>
+      <c r="AN9">
+        <v>424.09199999999998</v>
+      </c>
+      <c r="AO9">
+        <v>423.25</v>
+      </c>
+      <c r="AP9">
+        <v>419.57499999999999</v>
+      </c>
+      <c r="AQ9">
+        <v>419.61500000000001</v>
+      </c>
+      <c r="AR9">
+        <v>414.00099999999998</v>
+      </c>
+      <c r="AS9">
+        <v>414.04199999999997</v>
+      </c>
+      <c r="AT9">
+        <v>414.05700000000002</v>
+      </c>
+      <c r="AU9">
+        <v>414.25799999999998</v>
+      </c>
+      <c r="AV9">
+        <v>413.65</v>
+      </c>
+      <c r="AW9">
+        <v>404.43599999999998</v>
+      </c>
+      <c r="AX9">
+        <v>404.46899999999999</v>
+      </c>
+      <c r="AY9">
+        <v>404.45600000000002</v>
+      </c>
+      <c r="AZ9">
+        <v>405.02800000000002</v>
+      </c>
+      <c r="BA9">
+        <v>404.59300000000002</v>
+      </c>
+      <c r="BB9">
+        <v>404.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1746,8 +2057,128 @@
       <c r="M10">
         <v>788.98</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O10">
+        <f>X11</f>
+        <v>782.05700000000002</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ref="P10:Q10" si="3">Y11</f>
+        <v>782.05700000000002</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="3"/>
+        <v>786.10400000000004</v>
+      </c>
+      <c r="S10">
+        <f t="shared" ref="S10:S21" si="4">O10-J10</f>
+        <v>-7.8229999999999791</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>3.9070000000000391</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>7.8740000000000236</v>
+      </c>
+      <c r="W10" t="s">
+        <v>332</v>
+      </c>
+      <c r="X10">
+        <v>1433.8</v>
+      </c>
+      <c r="Y10">
+        <v>1292.67</v>
+      </c>
+      <c r="Z10">
+        <v>1392.87</v>
+      </c>
+      <c r="AA10">
+        <v>1464.17</v>
+      </c>
+      <c r="AB10">
+        <v>1499.58</v>
+      </c>
+      <c r="AC10">
+        <v>1536.93</v>
+      </c>
+      <c r="AD10">
+        <v>1536.01</v>
+      </c>
+      <c r="AE10">
+        <v>1534.94</v>
+      </c>
+      <c r="AF10">
+        <v>1542.8</v>
+      </c>
+      <c r="AG10">
+        <v>1555.07</v>
+      </c>
+      <c r="AH10">
+        <v>1573.68</v>
+      </c>
+      <c r="AI10">
+        <v>1575.66</v>
+      </c>
+      <c r="AJ10">
+        <v>1574.8</v>
+      </c>
+      <c r="AK10">
+        <v>1578.46</v>
+      </c>
+      <c r="AL10">
+        <v>1579.96</v>
+      </c>
+      <c r="AM10">
+        <v>1578.17</v>
+      </c>
+      <c r="AN10">
+        <v>1579.82</v>
+      </c>
+      <c r="AO10">
+        <v>1579.21</v>
+      </c>
+      <c r="AP10">
+        <v>1580.54</v>
+      </c>
+      <c r="AQ10">
+        <v>1581.69</v>
+      </c>
+      <c r="AR10">
+        <v>1582.35</v>
+      </c>
+      <c r="AS10">
+        <v>1582.84</v>
+      </c>
+      <c r="AT10">
+        <v>1584.44</v>
+      </c>
+      <c r="AU10">
+        <v>1584.33</v>
+      </c>
+      <c r="AV10">
+        <v>1587.56</v>
+      </c>
+      <c r="AW10">
+        <v>1586.59</v>
+      </c>
+      <c r="AX10">
+        <v>1588.85</v>
+      </c>
+      <c r="AY10">
+        <v>1589.18</v>
+      </c>
+      <c r="AZ10">
+        <v>1590.93</v>
+      </c>
+      <c r="BA10">
+        <v>1587.84</v>
+      </c>
+      <c r="BB10">
+        <v>1588.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1787,8 +2218,116 @@
       <c r="M11">
         <v>949.38</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O11">
+        <f>SUM(X13:X17,X21)</f>
+        <v>485.25182799999999</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ref="P11:Q11" si="5">SUM(Y13:Y17,Y21)</f>
+        <v>603.21673199999998</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>679.05446999999992</v>
+      </c>
+      <c r="W11" t="s">
+        <v>333</v>
+      </c>
+      <c r="X11">
+        <v>782.05700000000002</v>
+      </c>
+      <c r="Y11">
+        <v>782.05700000000002</v>
+      </c>
+      <c r="Z11">
+        <v>786.10400000000004</v>
+      </c>
+      <c r="AA11">
+        <v>794.19899999999996</v>
+      </c>
+      <c r="AB11">
+        <v>794.19899999999996</v>
+      </c>
+      <c r="AC11">
+        <v>782.05700000000002</v>
+      </c>
+      <c r="AD11">
+        <v>773.96299999999997</v>
+      </c>
+      <c r="AE11">
+        <v>757.77499999999998</v>
+      </c>
+      <c r="AF11">
+        <v>717.303</v>
+      </c>
+      <c r="AG11">
+        <v>709.20899999999995</v>
+      </c>
+      <c r="AH11">
+        <v>701.11500000000001</v>
+      </c>
+      <c r="AI11">
+        <v>701.11500000000001</v>
+      </c>
+      <c r="AJ11">
+        <v>701.11500000000001</v>
+      </c>
+      <c r="AK11">
+        <v>660.64400000000001</v>
+      </c>
+      <c r="AL11">
+        <v>660.64400000000001</v>
+      </c>
+      <c r="AM11">
+        <v>660.64400000000001</v>
+      </c>
+      <c r="AN11">
+        <v>660.64400000000001</v>
+      </c>
+      <c r="AO11">
+        <v>652.54999999999995</v>
+      </c>
+      <c r="AP11">
+        <v>652.54999999999995</v>
+      </c>
+      <c r="AQ11">
+        <v>652.54999999999995</v>
+      </c>
+      <c r="AR11">
+        <v>652.54999999999995</v>
+      </c>
+      <c r="AS11">
+        <v>652.54999999999995</v>
+      </c>
+      <c r="AT11">
+        <v>652.54999999999995</v>
+      </c>
+      <c r="AU11">
+        <v>652.54999999999995</v>
+      </c>
+      <c r="AV11">
+        <v>652.54999999999995</v>
+      </c>
+      <c r="AW11">
+        <v>652.54999999999995</v>
+      </c>
+      <c r="AX11">
+        <v>652.54999999999995</v>
+      </c>
+      <c r="AY11">
+        <v>652.54999999999995</v>
+      </c>
+      <c r="AZ11">
+        <v>644.45500000000004</v>
+      </c>
+      <c r="BA11">
+        <v>644.45500000000004</v>
+      </c>
+      <c r="BB11">
+        <v>644.45500000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1828,8 +2367,128 @@
       <c r="M12">
         <v>273.45999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O12">
+        <f>X12</f>
+        <v>283.95699999999999</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ref="P12:Q12" si="6">Y12</f>
+        <v>284.34399999999999</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="6"/>
+        <v>284.411</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="4"/>
+        <v>-0.10300000000000864</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>25.324000000000012</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>13.661000000000001</v>
+      </c>
+      <c r="W12" t="s">
+        <v>334</v>
+      </c>
+      <c r="X12">
+        <v>283.95699999999999</v>
+      </c>
+      <c r="Y12">
+        <v>284.34399999999999</v>
+      </c>
+      <c r="Z12">
+        <v>284.411</v>
+      </c>
+      <c r="AA12">
+        <v>284.63900000000001</v>
+      </c>
+      <c r="AB12">
+        <v>285.00700000000001</v>
+      </c>
+      <c r="AC12">
+        <v>284.78899999999999</v>
+      </c>
+      <c r="AD12">
+        <v>284.61200000000002</v>
+      </c>
+      <c r="AE12">
+        <v>284.42700000000002</v>
+      </c>
+      <c r="AF12">
+        <v>283.40300000000002</v>
+      </c>
+      <c r="AG12">
+        <v>282.904</v>
+      </c>
+      <c r="AH12">
+        <v>282.83999999999997</v>
+      </c>
+      <c r="AI12">
+        <v>282.80099999999999</v>
+      </c>
+      <c r="AJ12">
+        <v>282.80099999999999</v>
+      </c>
+      <c r="AK12">
+        <v>282.64699999999999</v>
+      </c>
+      <c r="AL12">
+        <v>282.512</v>
+      </c>
+      <c r="AM12">
+        <v>282.512</v>
+      </c>
+      <c r="AN12">
+        <v>282.512</v>
+      </c>
+      <c r="AO12">
+        <v>282.512</v>
+      </c>
+      <c r="AP12">
+        <v>282.512</v>
+      </c>
+      <c r="AQ12">
+        <v>282.512</v>
+      </c>
+      <c r="AR12">
+        <v>282.512</v>
+      </c>
+      <c r="AS12">
+        <v>282.512</v>
+      </c>
+      <c r="AT12">
+        <v>282.512</v>
+      </c>
+      <c r="AU12">
+        <v>282.512</v>
+      </c>
+      <c r="AV12">
+        <v>282.18400000000003</v>
+      </c>
+      <c r="AW12">
+        <v>282.00599999999997</v>
+      </c>
+      <c r="AX12">
+        <v>281.99900000000002</v>
+      </c>
+      <c r="AY12">
+        <v>281.988</v>
+      </c>
+      <c r="AZ12">
+        <v>281.988</v>
+      </c>
+      <c r="BA12">
+        <v>281.93400000000003</v>
+      </c>
+      <c r="BB12">
+        <v>281.92700000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1869,8 +2528,128 @@
       <c r="M13">
         <v>450.02</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O13">
+        <f>SUM(X13,X21)</f>
+        <v>366.44498799999997</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13:Q13" si="7">SUM(Y13,Y21)</f>
+        <v>418.88861200000002</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="7"/>
+        <v>445.45905000000005</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="4"/>
+        <v>29.294987999999989</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>40.258612000000028</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="1"/>
+        <v>13.98905000000002</v>
+      </c>
+      <c r="W13" t="s">
+        <v>335</v>
+      </c>
+      <c r="X13">
+        <v>366.32</v>
+      </c>
+      <c r="Y13">
+        <v>418.72</v>
+      </c>
+      <c r="Z13">
+        <v>445.29</v>
+      </c>
+      <c r="AA13">
+        <v>460.69</v>
+      </c>
+      <c r="AB13">
+        <v>473.49299999999999</v>
+      </c>
+      <c r="AC13">
+        <v>528.23</v>
+      </c>
+      <c r="AD13">
+        <v>571.28300000000002</v>
+      </c>
+      <c r="AE13">
+        <v>608.92399999999998</v>
+      </c>
+      <c r="AF13">
+        <v>668.38</v>
+      </c>
+      <c r="AG13">
+        <v>713.10299999999995</v>
+      </c>
+      <c r="AH13">
+        <v>744.47400000000005</v>
+      </c>
+      <c r="AI13">
+        <v>767.05499999999995</v>
+      </c>
+      <c r="AJ13">
+        <v>794.41300000000001</v>
+      </c>
+      <c r="AK13">
+        <v>836.55100000000004</v>
+      </c>
+      <c r="AL13">
+        <v>869.00599999999997</v>
+      </c>
+      <c r="AM13">
+        <v>899.85599999999999</v>
+      </c>
+      <c r="AN13">
+        <v>926.55100000000004</v>
+      </c>
+      <c r="AO13">
+        <v>958.79499999999996</v>
+      </c>
+      <c r="AP13">
+        <v>987.27099999999996</v>
+      </c>
+      <c r="AQ13">
+        <v>1012.7</v>
+      </c>
+      <c r="AR13">
+        <v>1037.42</v>
+      </c>
+      <c r="AS13">
+        <v>1063.73</v>
+      </c>
+      <c r="AT13">
+        <v>1089.6300000000001</v>
+      </c>
+      <c r="AU13">
+        <v>1115.76</v>
+      </c>
+      <c r="AV13">
+        <v>1139.32</v>
+      </c>
+      <c r="AW13">
+        <v>1170.1099999999999</v>
+      </c>
+      <c r="AX13">
+        <v>1195.6300000000001</v>
+      </c>
+      <c r="AY13">
+        <v>1221.5899999999999</v>
+      </c>
+      <c r="AZ13">
+        <v>1247.01</v>
+      </c>
+      <c r="BA13">
+        <v>1275.2</v>
+      </c>
+      <c r="BB13">
+        <v>1304.52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -1910,8 +2689,128 @@
       <c r="M14">
         <v>184.09</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O14">
+        <f>SUM(X14:X15)</f>
+        <v>99.617820000000009</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:Q14" si="8">SUM(Y14:Y15)</f>
+        <v>134.01141999999999</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="8"/>
+        <v>180.09241999999998</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="4"/>
+        <v>11.107820000000004</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>20.141419999999982</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>34.072419999999966</v>
+      </c>
+      <c r="W14" t="s">
+        <v>336</v>
+      </c>
+      <c r="X14">
+        <v>96.445400000000006</v>
+      </c>
+      <c r="Y14">
+        <v>130.839</v>
+      </c>
+      <c r="Z14">
+        <v>176.92</v>
+      </c>
+      <c r="AA14">
+        <v>213.84899999999999</v>
+      </c>
+      <c r="AB14">
+        <v>227.583</v>
+      </c>
+      <c r="AC14">
+        <v>273.32799999999997</v>
+      </c>
+      <c r="AD14">
+        <v>303.31</v>
+      </c>
+      <c r="AE14">
+        <v>334.89400000000001</v>
+      </c>
+      <c r="AF14">
+        <v>387.673</v>
+      </c>
+      <c r="AG14">
+        <v>430.22500000000002</v>
+      </c>
+      <c r="AH14">
+        <v>464.25299999999999</v>
+      </c>
+      <c r="AI14">
+        <v>488.63499999999999</v>
+      </c>
+      <c r="AJ14">
+        <v>520.48599999999999</v>
+      </c>
+      <c r="AK14">
+        <v>568.64700000000005</v>
+      </c>
+      <c r="AL14">
+        <v>605.66800000000001</v>
+      </c>
+      <c r="AM14">
+        <v>641.38499999999999</v>
+      </c>
+      <c r="AN14">
+        <v>674.428</v>
+      </c>
+      <c r="AO14">
+        <v>712.88699999999994</v>
+      </c>
+      <c r="AP14">
+        <v>746.84699999999998</v>
+      </c>
+      <c r="AQ14">
+        <v>777.40599999999995</v>
+      </c>
+      <c r="AR14">
+        <v>809.62800000000004</v>
+      </c>
+      <c r="AS14">
+        <v>841.94899999999996</v>
+      </c>
+      <c r="AT14">
+        <v>873.77300000000002</v>
+      </c>
+      <c r="AU14">
+        <v>906.12800000000004</v>
+      </c>
+      <c r="AV14">
+        <v>937.81899999999996</v>
+      </c>
+      <c r="AW14">
+        <v>976.51800000000003</v>
+      </c>
+      <c r="AX14">
+        <v>1008.19</v>
+      </c>
+      <c r="AY14">
+        <v>1040.55</v>
+      </c>
+      <c r="AZ14">
+        <v>1075.26</v>
+      </c>
+      <c r="BA14">
+        <v>1110.8599999999999</v>
+      </c>
+      <c r="BB14">
+        <v>1147.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -1951,8 +2850,128 @@
       <c r="M15">
         <v>26.13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O15">
+        <f>X16</f>
+        <v>3.9332199999999999</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ref="P15:Q16" si="9">Y16</f>
+        <v>34.801299999999998</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="9"/>
+        <v>37.727899999999998</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="4"/>
+        <v>-22.906780000000001</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>6.8912999999999975</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>11.477899999999998</v>
+      </c>
+      <c r="W15" t="s">
+        <v>337</v>
+      </c>
+      <c r="X15">
+        <v>3.1724199999999998</v>
+      </c>
+      <c r="Y15">
+        <v>3.1724199999999998</v>
+      </c>
+      <c r="Z15">
+        <v>3.1724199999999998</v>
+      </c>
+      <c r="AA15">
+        <v>3.1724199999999998</v>
+      </c>
+      <c r="AB15">
+        <v>3.1724199999999998</v>
+      </c>
+      <c r="AC15">
+        <v>4.7466900000000001</v>
+      </c>
+      <c r="AD15">
+        <v>4.7466900000000001</v>
+      </c>
+      <c r="AE15">
+        <v>4.7466900000000001</v>
+      </c>
+      <c r="AF15">
+        <v>5.53383</v>
+      </c>
+      <c r="AG15">
+        <v>5.53383</v>
+      </c>
+      <c r="AH15">
+        <v>5.53383</v>
+      </c>
+      <c r="AI15">
+        <v>5.53383</v>
+      </c>
+      <c r="AJ15">
+        <v>5.53383</v>
+      </c>
+      <c r="AK15">
+        <v>5.53383</v>
+      </c>
+      <c r="AL15">
+        <v>5.53383</v>
+      </c>
+      <c r="AM15">
+        <v>5.53383</v>
+      </c>
+      <c r="AN15">
+        <v>5.53383</v>
+      </c>
+      <c r="AO15">
+        <v>5.53383</v>
+      </c>
+      <c r="AP15">
+        <v>5.53383</v>
+      </c>
+      <c r="AQ15">
+        <v>5.53383</v>
+      </c>
+      <c r="AR15">
+        <v>5.53383</v>
+      </c>
+      <c r="AS15">
+        <v>5.53383</v>
+      </c>
+      <c r="AT15">
+        <v>5.53383</v>
+      </c>
+      <c r="AU15">
+        <v>5.53383</v>
+      </c>
+      <c r="AV15">
+        <v>5.53383</v>
+      </c>
+      <c r="AW15">
+        <v>5.53383</v>
+      </c>
+      <c r="AX15">
+        <v>5.53383</v>
+      </c>
+      <c r="AY15">
+        <v>5.53383</v>
+      </c>
+      <c r="AZ15">
+        <v>5.53383</v>
+      </c>
+      <c r="BA15">
+        <v>5.53383</v>
+      </c>
+      <c r="BB15">
+        <v>5.53383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1992,8 +3011,128 @@
       <c r="M16">
         <v>15.69</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O16">
+        <f>X17</f>
+        <v>15.255800000000001</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="9"/>
+        <v>15.5154</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="9"/>
+        <v>15.7751</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="4"/>
+        <v>-0.18419999999999881</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>-0.22460000000000058</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="1"/>
+        <v>-0.16489999999999938</v>
+      </c>
+      <c r="W16" t="s">
+        <v>338</v>
+      </c>
+      <c r="X16">
+        <v>3.9332199999999999</v>
+      </c>
+      <c r="Y16">
+        <v>34.801299999999998</v>
+      </c>
+      <c r="Z16">
+        <v>37.727899999999998</v>
+      </c>
+      <c r="AA16">
+        <v>37.8643</v>
+      </c>
+      <c r="AB16">
+        <v>37.787199999999999</v>
+      </c>
+      <c r="AC16">
+        <v>37.749699999999997</v>
+      </c>
+      <c r="AD16">
+        <v>37.184199999999997</v>
+      </c>
+      <c r="AE16">
+        <v>35.752400000000002</v>
+      </c>
+      <c r="AF16">
+        <v>33.077300000000001</v>
+      </c>
+      <c r="AG16">
+        <v>28.914300000000001</v>
+      </c>
+      <c r="AH16">
+        <v>23.435199999999998</v>
+      </c>
+      <c r="AI16">
+        <v>24.424800000000001</v>
+      </c>
+      <c r="AJ16">
+        <v>24.7866</v>
+      </c>
+      <c r="AK16">
+        <v>25.845800000000001</v>
+      </c>
+      <c r="AL16">
+        <v>25.2667</v>
+      </c>
+      <c r="AM16">
+        <v>24.620899999999999</v>
+      </c>
+      <c r="AN16">
+        <v>24.469899999999999</v>
+      </c>
+      <c r="AO16">
+        <v>24.469200000000001</v>
+      </c>
+      <c r="AP16">
+        <v>24.774100000000001</v>
+      </c>
+      <c r="AQ16">
+        <v>24.709299999999999</v>
+      </c>
+      <c r="AR16">
+        <v>25.323599999999999</v>
+      </c>
+      <c r="AS16">
+        <v>25.200500000000002</v>
+      </c>
+      <c r="AT16">
+        <v>24.7941</v>
+      </c>
+      <c r="AU16">
+        <v>24.581299999999999</v>
+      </c>
+      <c r="AV16">
+        <v>23.645399999999999</v>
+      </c>
+      <c r="AW16">
+        <v>23.322299999999998</v>
+      </c>
+      <c r="AX16">
+        <v>23.237300000000001</v>
+      </c>
+      <c r="AY16">
+        <v>22.995899999999999</v>
+      </c>
+      <c r="AZ16">
+        <v>23.307200000000002</v>
+      </c>
+      <c r="BA16">
+        <v>22.852</v>
+      </c>
+      <c r="BB16">
+        <v>22.668299999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -2033,8 +3172,116 @@
       <c r="M17">
         <v>-4.8499999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="S17">
+        <f t="shared" si="4"/>
+        <v>5.32</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="1"/>
+        <v>4.97</v>
+      </c>
+      <c r="W17" t="s">
+        <v>339</v>
+      </c>
+      <c r="X17">
+        <v>15.255800000000001</v>
+      </c>
+      <c r="Y17">
+        <v>15.5154</v>
+      </c>
+      <c r="Z17">
+        <v>15.7751</v>
+      </c>
+      <c r="AA17">
+        <v>15.7751</v>
+      </c>
+      <c r="AB17">
+        <v>15.7751</v>
+      </c>
+      <c r="AC17">
+        <v>16.553999999999998</v>
+      </c>
+      <c r="AD17">
+        <v>17.159800000000001</v>
+      </c>
+      <c r="AE17">
+        <v>17.679099999999998</v>
+      </c>
+      <c r="AF17">
+        <v>18.458100000000002</v>
+      </c>
+      <c r="AG17">
+        <v>18.977399999999999</v>
+      </c>
+      <c r="AH17">
+        <v>19.236999999999998</v>
+      </c>
+      <c r="AI17">
+        <v>19.4101</v>
+      </c>
+      <c r="AJ17">
+        <v>19.669799999999999</v>
+      </c>
+      <c r="AK17">
+        <v>20.015999999999998</v>
+      </c>
+      <c r="AL17">
+        <v>20.275600000000001</v>
+      </c>
+      <c r="AM17">
+        <v>20.5352</v>
+      </c>
+      <c r="AN17">
+        <v>20.708300000000001</v>
+      </c>
+      <c r="AO17">
+        <v>20.968</v>
+      </c>
+      <c r="AP17">
+        <v>21.141100000000002</v>
+      </c>
+      <c r="AQ17">
+        <v>21.3142</v>
+      </c>
+      <c r="AR17">
+        <v>21.487300000000001</v>
+      </c>
+      <c r="AS17">
+        <v>21.660399999999999</v>
+      </c>
+      <c r="AT17">
+        <v>21.833500000000001</v>
+      </c>
+      <c r="AU17">
+        <v>22.006599999999999</v>
+      </c>
+      <c r="AV17">
+        <v>22.0931</v>
+      </c>
+      <c r="AW17">
+        <v>22.266200000000001</v>
+      </c>
+      <c r="AX17">
+        <v>22.352799999999998</v>
+      </c>
+      <c r="AY17">
+        <v>22.439299999999999</v>
+      </c>
+      <c r="AZ17">
+        <v>22.5259</v>
+      </c>
+      <c r="BA17">
+        <v>22.612400000000001</v>
+      </c>
+      <c r="BB17">
+        <v>22.699000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -2074,8 +3321,128 @@
       <c r="M18">
         <v>16.89</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O18">
+        <f>X18</f>
+        <v>12.596299999999999</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18:Q18" si="10">Y18</f>
+        <v>12.283300000000001</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="10"/>
+        <v>12.2845</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="4"/>
+        <v>-3.7336999999999989</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>-5.5167000000000002</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="1"/>
+        <v>-5.8955000000000002</v>
+      </c>
+      <c r="W18" t="s">
+        <v>340</v>
+      </c>
+      <c r="X18">
+        <v>12.596299999999999</v>
+      </c>
+      <c r="Y18">
+        <v>12.283300000000001</v>
+      </c>
+      <c r="Z18">
+        <v>12.2845</v>
+      </c>
+      <c r="AA18">
+        <v>12.2813</v>
+      </c>
+      <c r="AB18">
+        <v>12.277200000000001</v>
+      </c>
+      <c r="AC18">
+        <v>12.271800000000001</v>
+      </c>
+      <c r="AD18">
+        <v>12.2989</v>
+      </c>
+      <c r="AE18">
+        <v>12.3444</v>
+      </c>
+      <c r="AF18">
+        <v>12.3887</v>
+      </c>
+      <c r="AG18">
+        <v>12.431900000000001</v>
+      </c>
+      <c r="AH18">
+        <v>12.4628</v>
+      </c>
+      <c r="AI18">
+        <v>12.4877</v>
+      </c>
+      <c r="AJ18">
+        <v>12.5113</v>
+      </c>
+      <c r="AK18">
+        <v>12.5252</v>
+      </c>
+      <c r="AL18">
+        <v>12.546799999999999</v>
+      </c>
+      <c r="AM18">
+        <v>12.567399999999999</v>
+      </c>
+      <c r="AN18">
+        <v>12.586600000000001</v>
+      </c>
+      <c r="AO18">
+        <v>12.603</v>
+      </c>
+      <c r="AP18">
+        <v>12.619400000000001</v>
+      </c>
+      <c r="AQ18">
+        <v>12.633800000000001</v>
+      </c>
+      <c r="AR18">
+        <v>12.6485</v>
+      </c>
+      <c r="AS18">
+        <v>12.661099999999999</v>
+      </c>
+      <c r="AT18">
+        <v>12.6736</v>
+      </c>
+      <c r="AU18">
+        <v>12.684900000000001</v>
+      </c>
+      <c r="AV18">
+        <v>12.697900000000001</v>
+      </c>
+      <c r="AW18">
+        <v>12.7103</v>
+      </c>
+      <c r="AX18">
+        <v>12.7212</v>
+      </c>
+      <c r="AY18">
+        <v>12.7326</v>
+      </c>
+      <c r="AZ18">
+        <v>12.742699999999999</v>
+      </c>
+      <c r="BA18">
+        <v>12.7538</v>
+      </c>
+      <c r="BB18">
+        <v>12.764900000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -2115,8 +3482,116 @@
       <c r="M19">
         <v>3.22</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="S19">
+        <f t="shared" si="4"/>
+        <v>-3.17</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>-3.17</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="1"/>
+        <v>-3.31</v>
+      </c>
+      <c r="W19" t="s">
+        <v>341</v>
+      </c>
+      <c r="X19">
+        <v>145.381</v>
+      </c>
+      <c r="Y19">
+        <v>147.364</v>
+      </c>
+      <c r="Z19">
+        <v>148.39699999999999</v>
+      </c>
+      <c r="AA19">
+        <v>150.11099999999999</v>
+      </c>
+      <c r="AB19">
+        <v>150.904</v>
+      </c>
+      <c r="AC19">
+        <v>150.89099999999999</v>
+      </c>
+      <c r="AD19">
+        <v>157.23699999999999</v>
+      </c>
+      <c r="AE19">
+        <v>167.62899999999999</v>
+      </c>
+      <c r="AF19">
+        <v>178.76900000000001</v>
+      </c>
+      <c r="AG19">
+        <v>191.74600000000001</v>
+      </c>
+      <c r="AH19">
+        <v>201.892</v>
+      </c>
+      <c r="AI19">
+        <v>210.899</v>
+      </c>
+      <c r="AJ19">
+        <v>219.90700000000001</v>
+      </c>
+      <c r="AK19">
+        <v>225.71100000000001</v>
+      </c>
+      <c r="AL19">
+        <v>234.69399999999999</v>
+      </c>
+      <c r="AM19">
+        <v>243.93</v>
+      </c>
+      <c r="AN19">
+        <v>252.80099999999999</v>
+      </c>
+      <c r="AO19">
+        <v>261.577</v>
+      </c>
+      <c r="AP19">
+        <v>270.55399999999997</v>
+      </c>
+      <c r="AQ19">
+        <v>278.82799999999997</v>
+      </c>
+      <c r="AR19">
+        <v>287.67200000000003</v>
+      </c>
+      <c r="AS19">
+        <v>295.459</v>
+      </c>
+      <c r="AT19">
+        <v>303.733</v>
+      </c>
+      <c r="AU19">
+        <v>311.99400000000003</v>
+      </c>
+      <c r="AV19">
+        <v>321.60000000000002</v>
+      </c>
+      <c r="AW19">
+        <v>331.34</v>
+      </c>
+      <c r="AX19">
+        <v>340.68299999999999</v>
+      </c>
+      <c r="AY19">
+        <v>350.476</v>
+      </c>
+      <c r="AZ19">
+        <v>359.697</v>
+      </c>
+      <c r="BA19">
+        <v>370.17700000000002</v>
+      </c>
+      <c r="BB19">
+        <v>381.23099999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -2156,8 +3631,128 @@
       <c r="M20">
         <v>6.73</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O20">
+        <f>X24</f>
+        <v>13.8758</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ref="P20:Q20" si="11">Y24</f>
+        <v>13.8758</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="11"/>
+        <v>13.8758</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>6.2858000000000001</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>6.6958000000000002</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="1"/>
+        <v>6.9257999999999997</v>
+      </c>
+      <c r="W20" t="s">
+        <v>342</v>
+      </c>
+      <c r="X20">
+        <v>41.731099999999998</v>
+      </c>
+      <c r="Y20">
+        <v>50.693899999999999</v>
+      </c>
+      <c r="Z20">
+        <v>45.138399999999997</v>
+      </c>
+      <c r="AA20">
+        <v>45.113999999999997</v>
+      </c>
+      <c r="AB20">
+        <v>44.234400000000001</v>
+      </c>
+      <c r="AC20">
+        <v>43.505099999999999</v>
+      </c>
+      <c r="AD20">
+        <v>42.593200000000003</v>
+      </c>
+      <c r="AE20">
+        <v>40.847900000000003</v>
+      </c>
+      <c r="AF20">
+        <v>38.600900000000003</v>
+      </c>
+      <c r="AG20">
+        <v>35.323599999999999</v>
+      </c>
+      <c r="AH20">
+        <v>31.584599999999998</v>
+      </c>
+      <c r="AI20">
+        <v>32.316600000000001</v>
+      </c>
+      <c r="AJ20">
+        <v>32.840800000000002</v>
+      </c>
+      <c r="AK20">
+        <v>33.621099999999998</v>
+      </c>
+      <c r="AL20">
+        <v>33.438800000000001</v>
+      </c>
+      <c r="AM20">
+        <v>33.341799999999999</v>
+      </c>
+      <c r="AN20">
+        <v>33.6265</v>
+      </c>
+      <c r="AO20">
+        <v>33.739100000000001</v>
+      </c>
+      <c r="AP20">
+        <v>33.947400000000002</v>
+      </c>
+      <c r="AQ20">
+        <v>33.970500000000001</v>
+      </c>
+      <c r="AR20">
+        <v>34.274900000000002</v>
+      </c>
+      <c r="AS20">
+        <v>34.295699999999997</v>
+      </c>
+      <c r="AT20">
+        <v>34.2864</v>
+      </c>
+      <c r="AU20">
+        <v>34.411200000000001</v>
+      </c>
+      <c r="AV20">
+        <v>33.941200000000002</v>
+      </c>
+      <c r="AW20">
+        <v>33.806899999999999</v>
+      </c>
+      <c r="AX20">
+        <v>33.850299999999997</v>
+      </c>
+      <c r="AY20">
+        <v>33.826999999999998</v>
+      </c>
+      <c r="AZ20">
+        <v>34.224800000000002</v>
+      </c>
+      <c r="BA20">
+        <v>33.896599999999999</v>
+      </c>
+      <c r="BB20">
+        <v>33.837800000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -2197,8 +3792,128 @@
       <c r="M21">
         <v>4044.16</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O21">
+        <f>SUM(X9:X24)</f>
+        <v>3960.1910279999997</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21:Q21" si="12">SUM(Y9:Y24)</f>
+        <v>4081.9497320000009</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="12"/>
+        <v>4121.9571700000006</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="4"/>
+        <v>109.16102799999953</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>119.15973200000099</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="1"/>
+        <v>80.117170000000442</v>
+      </c>
+      <c r="W21" t="s">
+        <v>343</v>
+      </c>
+      <c r="X21">
+        <v>0.124988</v>
+      </c>
+      <c r="Y21">
+        <v>0.16861200000000001</v>
+      </c>
+      <c r="Z21">
+        <v>0.16905000000000001</v>
+      </c>
+      <c r="AA21">
+        <v>0.169488</v>
+      </c>
+      <c r="AB21">
+        <v>8.8709699999999998</v>
+      </c>
+      <c r="AC21">
+        <v>11.2661</v>
+      </c>
+      <c r="AD21">
+        <v>13.839700000000001</v>
+      </c>
+      <c r="AE21">
+        <v>21.648299999999999</v>
+      </c>
+      <c r="AF21">
+        <v>24.893899999999999</v>
+      </c>
+      <c r="AG21">
+        <v>26.225100000000001</v>
+      </c>
+      <c r="AH21">
+        <v>27.1266</v>
+      </c>
+      <c r="AI21">
+        <v>27.718900000000001</v>
+      </c>
+      <c r="AJ21">
+        <v>28.530999999999999</v>
+      </c>
+      <c r="AK21">
+        <v>29.751999999999999</v>
+      </c>
+      <c r="AL21">
+        <v>30.686699999999998</v>
+      </c>
+      <c r="AM21">
+        <v>31.610800000000001</v>
+      </c>
+      <c r="AN21">
+        <v>32.433900000000001</v>
+      </c>
+      <c r="AO21">
+        <v>33.440300000000001</v>
+      </c>
+      <c r="AP21">
+        <v>34.294600000000003</v>
+      </c>
+      <c r="AQ21">
+        <v>35.119</v>
+      </c>
+      <c r="AR21">
+        <v>35.932000000000002</v>
+      </c>
+      <c r="AS21">
+        <v>36.814</v>
+      </c>
+      <c r="AT21">
+        <v>37.633800000000001</v>
+      </c>
+      <c r="AU21">
+        <v>38.549599999999998</v>
+      </c>
+      <c r="AV21">
+        <v>39.376300000000001</v>
+      </c>
+      <c r="AW21">
+        <v>40.377000000000002</v>
+      </c>
+      <c r="AX21">
+        <v>41.307299999999998</v>
+      </c>
+      <c r="AY21">
+        <v>42.168399999999998</v>
+      </c>
+      <c r="AZ21">
+        <v>43.106299999999997</v>
+      </c>
+      <c r="BA21">
+        <v>44.149900000000002</v>
+      </c>
+      <c r="BB21">
+        <v>45.145099999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -2211,8 +3926,104 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="W22" t="s">
+        <v>344</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -2252,8 +4063,104 @@
       <c r="M23">
         <v>55.27</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="W23" t="s">
+        <v>345</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -2293,8 +4200,104 @@
       <c r="M24">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="W24" t="s">
+        <v>346</v>
+      </c>
+      <c r="X24">
+        <v>13.8758</v>
+      </c>
+      <c r="Y24">
+        <v>13.8758</v>
+      </c>
+      <c r="Z24">
+        <v>13.8758</v>
+      </c>
+      <c r="AA24">
+        <v>13.8758</v>
+      </c>
+      <c r="AB24">
+        <v>13.8758</v>
+      </c>
+      <c r="AC24">
+        <v>14.254300000000001</v>
+      </c>
+      <c r="AD24">
+        <v>14.6327</v>
+      </c>
+      <c r="AE24">
+        <v>14.885</v>
+      </c>
+      <c r="AF24">
+        <v>15.1373</v>
+      </c>
+      <c r="AG24">
+        <v>15.3896</v>
+      </c>
+      <c r="AH24">
+        <v>15.515700000000001</v>
+      </c>
+      <c r="AI24">
+        <v>15.6419</v>
+      </c>
+      <c r="AJ24">
+        <v>15.768000000000001</v>
+      </c>
+      <c r="AK24">
+        <v>15.8941</v>
+      </c>
+      <c r="AL24">
+        <v>16.020299999999999</v>
+      </c>
+      <c r="AM24">
+        <v>16.1464</v>
+      </c>
+      <c r="AN24">
+        <v>16.272600000000001</v>
+      </c>
+      <c r="AO24">
+        <v>16.398700000000002</v>
+      </c>
+      <c r="AP24">
+        <v>16.524899999999999</v>
+      </c>
+      <c r="AQ24">
+        <v>16.524899999999999</v>
+      </c>
+      <c r="AR24">
+        <v>16.524899999999999</v>
+      </c>
+      <c r="AS24">
+        <v>16.524899999999999</v>
+      </c>
+      <c r="AT24">
+        <v>16.524899999999999</v>
+      </c>
+      <c r="AU24">
+        <v>16.524899999999999</v>
+      </c>
+      <c r="AV24">
+        <v>16.524899999999999</v>
+      </c>
+      <c r="AW24">
+        <v>16.524899999999999</v>
+      </c>
+      <c r="AX24">
+        <v>16.524899999999999</v>
+      </c>
+      <c r="AY24">
+        <v>16.524899999999999</v>
+      </c>
+      <c r="AZ24">
+        <v>16.524899999999999</v>
+      </c>
+      <c r="BA24">
+        <v>16.524899999999999</v>
+      </c>
+      <c r="BB24">
+        <v>16.524899999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2335,7 +4338,7 @@
         <v>26.24</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -2376,7 +4379,7 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -2417,7 +4420,7 @@
         <v>12.12</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -2458,7 +4461,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -2499,7 +4502,7 @@
         <v>103.4</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -2540,7 +4543,7 @@
         <v>119.9</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -2554,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -5969,11 +7972,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E568DE-48BA-4A53-AD96-D707A1A92561}">
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="55.453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -6078,97 +8084,97 @@
         <v>261</v>
       </c>
       <c r="B2">
-        <v>210.982</v>
+        <v>211.07</v>
       </c>
       <c r="C2">
-        <v>206.596</v>
+        <v>206.86199999999999</v>
       </c>
       <c r="D2">
-        <v>196.792</v>
+        <v>197.131</v>
       </c>
       <c r="E2">
-        <v>188.02</v>
+        <v>188.452</v>
       </c>
       <c r="F2">
-        <v>181.054</v>
+        <v>181.614</v>
       </c>
       <c r="G2">
-        <v>161.18799999999999</v>
+        <v>161.88900000000001</v>
       </c>
       <c r="H2">
-        <v>154.22200000000001</v>
+        <v>155.05099999999999</v>
       </c>
       <c r="I2">
-        <v>147.77199999999999</v>
+        <v>148.739</v>
       </c>
       <c r="J2">
-        <v>136.678</v>
+        <v>137.69300000000001</v>
       </c>
       <c r="K2">
-        <v>125.584</v>
+        <v>126.64700000000001</v>
       </c>
       <c r="L2">
-        <v>120.682</v>
+        <v>121.913</v>
       </c>
       <c r="M2">
-        <v>119.908</v>
+        <v>121.387</v>
       </c>
       <c r="N2">
-        <v>117.328</v>
+        <v>119.02</v>
       </c>
       <c r="O2">
-        <v>116.554</v>
+        <v>118.494</v>
       </c>
       <c r="P2">
-        <v>111.39400000000001</v>
+        <v>113.497</v>
       </c>
       <c r="Q2">
-        <v>109.58799999999999</v>
+        <v>111.919</v>
       </c>
       <c r="R2">
-        <v>108.556</v>
+        <v>111.13</v>
       </c>
       <c r="S2">
-        <v>108.04</v>
+        <v>110.867</v>
       </c>
       <c r="T2">
-        <v>106.75</v>
+        <v>109.815</v>
       </c>
       <c r="U2">
-        <v>106.492</v>
+        <v>109.815</v>
       </c>
       <c r="V2">
-        <v>104.68600000000001</v>
+        <v>108.23699999999999</v>
       </c>
       <c r="W2">
-        <v>104.428</v>
+        <v>108.23699999999999</v>
       </c>
       <c r="X2">
-        <v>104.428</v>
+        <v>108.23699999999999</v>
       </c>
       <c r="Y2">
-        <v>104.428</v>
+        <v>108.23699999999999</v>
       </c>
       <c r="Z2">
-        <v>104.428</v>
+        <v>108.23699999999999</v>
       </c>
       <c r="AA2">
-        <v>101.848</v>
+        <v>105.87</v>
       </c>
       <c r="AB2">
-        <v>101.848</v>
+        <v>105.87</v>
       </c>
       <c r="AC2">
-        <v>101.848</v>
+        <v>105.87</v>
       </c>
       <c r="AD2">
-        <v>101.848</v>
+        <v>105.87</v>
       </c>
       <c r="AE2">
-        <v>101.848</v>
+        <v>105.87</v>
       </c>
       <c r="AF2">
-        <v>101.848</v>
+        <v>105.87</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
@@ -6176,97 +8182,97 @@
         <v>262</v>
       </c>
       <c r="B3">
-        <v>267.16699999999997</v>
+        <v>335.86599999999999</v>
       </c>
       <c r="C3">
-        <v>271.017</v>
+        <v>339.298</v>
       </c>
       <c r="D3">
-        <v>282.25900000000001</v>
+        <v>345.38200000000001</v>
       </c>
       <c r="E3">
-        <v>282.25900000000001</v>
+        <v>342.57400000000001</v>
       </c>
       <c r="F3">
-        <v>275.17500000000001</v>
+        <v>336.178</v>
       </c>
       <c r="G3">
-        <v>272.86500000000001</v>
+        <v>337.11399999999998</v>
       </c>
       <c r="H3">
-        <v>270.863</v>
+        <v>334.93</v>
       </c>
       <c r="I3">
-        <v>269.63099999999997</v>
+        <v>334.15</v>
       </c>
       <c r="J3">
-        <v>270.24700000000001</v>
+        <v>334.61799999999999</v>
       </c>
       <c r="K3">
-        <v>270.09300000000002</v>
+        <v>334.30599999999998</v>
       </c>
       <c r="L3">
-        <v>270.40100000000001</v>
+        <v>334.46199999999999</v>
       </c>
       <c r="M3">
-        <v>269.93900000000002</v>
+        <v>333.99400000000003</v>
       </c>
       <c r="N3">
-        <v>269.78500000000003</v>
+        <v>333.83800000000002</v>
       </c>
       <c r="O3">
-        <v>269.78500000000003</v>
+        <v>333.68200000000002</v>
       </c>
       <c r="P3">
-        <v>270.09300000000002</v>
+        <v>333.83800000000002</v>
       </c>
       <c r="Q3">
-        <v>268.86099999999999</v>
+        <v>332.59</v>
       </c>
       <c r="R3">
-        <v>268.70699999999999</v>
+        <v>332.27800000000002</v>
       </c>
       <c r="S3">
-        <v>268.09100000000001</v>
+        <v>331.654</v>
       </c>
       <c r="T3">
-        <v>268.553</v>
+        <v>331.96600000000001</v>
       </c>
       <c r="U3">
-        <v>269.01499999999999</v>
+        <v>332.27800000000002</v>
       </c>
       <c r="V3">
-        <v>268.86099999999999</v>
+        <v>332.12200000000001</v>
       </c>
       <c r="W3">
-        <v>269.16899999999998</v>
+        <v>332.43400000000003</v>
       </c>
       <c r="X3">
-        <v>269.16899999999998</v>
+        <v>332.27800000000002</v>
       </c>
       <c r="Y3">
-        <v>269.47699999999998</v>
+        <v>332.43400000000003</v>
       </c>
       <c r="Z3">
-        <v>269.01499999999999</v>
+        <v>331.96600000000001</v>
       </c>
       <c r="AA3">
-        <v>269.32299999999998</v>
+        <v>332.27800000000002</v>
       </c>
       <c r="AB3">
-        <v>269.63099999999997</v>
+        <v>332.43400000000003</v>
       </c>
       <c r="AC3">
-        <v>269.93900000000002</v>
+        <v>332.59</v>
       </c>
       <c r="AD3">
-        <v>270.09300000000002</v>
+        <v>332.74599999999998</v>
       </c>
       <c r="AE3">
-        <v>269.01499999999999</v>
+        <v>331.654</v>
       </c>
       <c r="AF3">
-        <v>268.86099999999999</v>
+        <v>331.654</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
@@ -6283,88 +8289,88 @@
         <v>97.119</v>
       </c>
       <c r="E4">
-        <v>97.119</v>
+        <v>98.119</v>
       </c>
       <c r="F4">
-        <v>97.119</v>
+        <v>98.119</v>
       </c>
       <c r="G4">
+        <v>96.619</v>
+      </c>
+      <c r="H4">
         <v>95.619</v>
       </c>
-      <c r="H4">
-        <v>95.119</v>
-      </c>
       <c r="I4">
-        <v>93.119</v>
+        <v>93.619</v>
       </c>
       <c r="J4">
-        <v>88.119</v>
+        <v>88.619</v>
       </c>
       <c r="K4">
-        <v>87.119</v>
+        <v>87.619</v>
       </c>
       <c r="L4">
-        <v>86.119</v>
+        <v>86.619</v>
       </c>
       <c r="M4">
-        <v>86.119</v>
+        <v>86.619</v>
       </c>
       <c r="N4">
-        <v>86.119</v>
+        <v>86.619</v>
       </c>
       <c r="O4">
-        <v>81.119</v>
+        <v>81.619</v>
       </c>
       <c r="P4">
-        <v>81.119</v>
+        <v>81.619</v>
       </c>
       <c r="Q4">
-        <v>81.119</v>
+        <v>81.619</v>
       </c>
       <c r="R4">
-        <v>81.119</v>
+        <v>81.619</v>
       </c>
       <c r="S4">
-        <v>80.119</v>
+        <v>80.619</v>
       </c>
       <c r="T4">
-        <v>80.119</v>
+        <v>80.619</v>
       </c>
       <c r="U4">
-        <v>80.119</v>
+        <v>80.619</v>
       </c>
       <c r="V4">
-        <v>80.119</v>
+        <v>80.619</v>
       </c>
       <c r="W4">
-        <v>80.119</v>
+        <v>80.619</v>
       </c>
       <c r="X4">
-        <v>80.119</v>
+        <v>80.619</v>
       </c>
       <c r="Y4">
-        <v>80.119</v>
+        <v>80.619</v>
       </c>
       <c r="Z4">
-        <v>80.119</v>
+        <v>80.619</v>
       </c>
       <c r="AA4">
-        <v>80.119</v>
+        <v>80.619</v>
       </c>
       <c r="AB4">
-        <v>80.119</v>
+        <v>80.619</v>
       </c>
       <c r="AC4">
-        <v>80.119</v>
+        <v>80.619</v>
       </c>
       <c r="AD4">
-        <v>79.119</v>
+        <v>79.619</v>
       </c>
       <c r="AE4">
-        <v>79.119</v>
+        <v>79.619</v>
       </c>
       <c r="AF4">
-        <v>79.119</v>
+        <v>79.619</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
@@ -6375,94 +8381,94 @@
         <v>79.629000000000005</v>
       </c>
       <c r="C5">
-        <v>79.728999999999999</v>
+        <v>79.727000000000004</v>
       </c>
       <c r="D5">
-        <v>79.736999999999995</v>
+        <v>79.742999999999995</v>
       </c>
       <c r="E5">
-        <v>79.893000000000001</v>
+        <v>79.799000000000007</v>
       </c>
       <c r="F5">
-        <v>79.873999999999995</v>
+        <v>79.891000000000005</v>
       </c>
       <c r="G5">
-        <v>79.8</v>
+        <v>79.828000000000003</v>
       </c>
       <c r="H5">
-        <v>79.748000000000005</v>
+        <v>79.778000000000006</v>
       </c>
       <c r="I5">
-        <v>79.694999999999993</v>
+        <v>79.724999999999994</v>
       </c>
       <c r="J5">
-        <v>79.408000000000001</v>
+        <v>79.438000000000002</v>
       </c>
       <c r="K5">
-        <v>79.268000000000001</v>
+        <v>79.298000000000002</v>
       </c>
       <c r="L5">
-        <v>79.25</v>
+        <v>79.28</v>
       </c>
       <c r="M5">
-        <v>79.239000000000004</v>
+        <v>79.269000000000005</v>
       </c>
       <c r="N5">
-        <v>79.239000000000004</v>
+        <v>79.269000000000005</v>
       </c>
       <c r="O5">
-        <v>79.195999999999998</v>
+        <v>79.225999999999999</v>
       </c>
       <c r="P5">
-        <v>79.158000000000001</v>
+        <v>79.188000000000002</v>
       </c>
       <c r="Q5">
-        <v>79.158000000000001</v>
+        <v>79.188000000000002</v>
       </c>
       <c r="R5">
-        <v>79.158000000000001</v>
+        <v>79.188000000000002</v>
       </c>
       <c r="S5">
-        <v>79.158000000000001</v>
+        <v>79.188000000000002</v>
       </c>
       <c r="T5">
-        <v>79.158000000000001</v>
+        <v>79.188000000000002</v>
       </c>
       <c r="U5">
-        <v>79.158000000000001</v>
+        <v>79.188000000000002</v>
       </c>
       <c r="V5">
-        <v>79.158000000000001</v>
+        <v>79.188000000000002</v>
       </c>
       <c r="W5">
-        <v>79.158000000000001</v>
+        <v>79.188000000000002</v>
       </c>
       <c r="X5">
-        <v>79.158000000000001</v>
+        <v>79.188000000000002</v>
       </c>
       <c r="Y5">
-        <v>79.158000000000001</v>
+        <v>79.188000000000002</v>
       </c>
       <c r="Z5">
-        <v>79.066000000000003</v>
+        <v>79.096000000000004</v>
       </c>
       <c r="AA5">
-        <v>79.016000000000005</v>
+        <v>79.046000000000006</v>
       </c>
       <c r="AB5">
-        <v>79.013999999999996</v>
+        <v>79.043999999999997</v>
       </c>
       <c r="AC5">
-        <v>79.010999999999996</v>
+        <v>79.040999999999997</v>
       </c>
       <c r="AD5">
-        <v>79.010999999999996</v>
+        <v>79.040999999999997</v>
       </c>
       <c r="AE5">
-        <v>78.995999999999995</v>
+        <v>79.025999999999996</v>
       </c>
       <c r="AF5">
-        <v>78.994</v>
+        <v>79.024000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.35">
@@ -6476,91 +8482,91 @@
         <v>133.47900000000001</v>
       </c>
       <c r="D6">
-        <v>137.07900000000001</v>
+        <v>141.21899999999999</v>
       </c>
       <c r="E6">
-        <v>139.524</v>
+        <v>145.48400000000001</v>
       </c>
       <c r="F6">
-        <v>141.029</v>
+        <v>148.864</v>
       </c>
       <c r="G6">
-        <v>168.839</v>
+        <v>164.084</v>
       </c>
       <c r="H6">
-        <v>187.304</v>
+        <v>176.21899999999999</v>
       </c>
       <c r="I6">
-        <v>203.434</v>
+        <v>186.42400000000001</v>
       </c>
       <c r="J6">
-        <v>224.97399999999999</v>
+        <v>202.29900000000001</v>
       </c>
       <c r="K6">
-        <v>241.41399999999999</v>
+        <v>214.184</v>
       </c>
       <c r="L6">
-        <v>252.19900000000001</v>
+        <v>222.00899999999999</v>
       </c>
       <c r="M6">
-        <v>260.49900000000002</v>
+        <v>227.84899999999999</v>
       </c>
       <c r="N6">
-        <v>269.80900000000003</v>
+        <v>235.149</v>
       </c>
       <c r="O6">
-        <v>284.47899999999998</v>
+        <v>246.274</v>
       </c>
       <c r="P6">
-        <v>296.529</v>
+        <v>254.96899999999999</v>
       </c>
       <c r="Q6">
-        <v>308.79899999999998</v>
+        <v>262.959</v>
       </c>
       <c r="R6">
-        <v>319.529</v>
+        <v>270.18400000000003</v>
       </c>
       <c r="S6">
-        <v>331.32400000000001</v>
+        <v>278.47899999999998</v>
       </c>
       <c r="T6">
-        <v>341.65899999999999</v>
+        <v>285.76900000000001</v>
       </c>
       <c r="U6">
-        <v>351.36900000000003</v>
+        <v>292.13900000000001</v>
       </c>
       <c r="V6">
-        <v>362.00900000000001</v>
+        <v>298.73899999999998</v>
       </c>
       <c r="W6">
-        <v>371.49400000000003</v>
+        <v>305.28399999999999</v>
       </c>
       <c r="X6">
-        <v>381.79899999999998</v>
+        <v>311.714</v>
       </c>
       <c r="Y6">
-        <v>391.75900000000001</v>
+        <v>318.11399999999998</v>
       </c>
       <c r="Z6">
-        <v>402.09399999999999</v>
+        <v>324.36399999999998</v>
       </c>
       <c r="AA6">
-        <v>413.47399999999999</v>
+        <v>331.97399999999999</v>
       </c>
       <c r="AB6">
-        <v>422.97399999999999</v>
+        <v>338.19400000000002</v>
       </c>
       <c r="AC6">
-        <v>432.31400000000002</v>
+        <v>344.48399999999998</v>
       </c>
       <c r="AD6">
-        <v>443.029</v>
+        <v>351.13400000000001</v>
       </c>
       <c r="AE6">
-        <v>454.25400000000002</v>
+        <v>357.92399999999998</v>
       </c>
       <c r="AF6">
-        <v>464.50400000000002</v>
+        <v>364.99400000000003</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
@@ -6571,94 +8577,94 @@
         <v>45.796999999999997</v>
       </c>
       <c r="C7">
-        <v>62.063000000000002</v>
+        <v>62.034999999999997</v>
       </c>
       <c r="D7">
-        <v>74.379000000000005</v>
+        <v>83.659000000000006</v>
       </c>
       <c r="E7">
-        <v>82.590999999999994</v>
+        <v>100.98699999999999</v>
       </c>
       <c r="F7">
-        <v>84.052999999999997</v>
+        <v>107.04900000000001</v>
       </c>
       <c r="G7">
-        <v>110.25700000000001</v>
+        <v>127.80500000000001</v>
       </c>
       <c r="H7">
-        <v>124.745</v>
+        <v>141.64099999999999</v>
       </c>
       <c r="I7">
-        <v>139.39699999999999</v>
+        <v>155.20500000000001</v>
       </c>
       <c r="J7">
-        <v>161.37700000000001</v>
+        <v>178.441</v>
       </c>
       <c r="K7">
-        <v>180.315</v>
+        <v>197.291</v>
       </c>
       <c r="L7">
-        <v>194.239</v>
+        <v>211.11500000000001</v>
       </c>
       <c r="M7">
-        <v>205.32499999999999</v>
+        <v>221.66300000000001</v>
       </c>
       <c r="N7">
-        <v>217.88499999999999</v>
+        <v>235.23500000000001</v>
       </c>
       <c r="O7">
-        <v>237.97499999999999</v>
+        <v>256.267</v>
       </c>
       <c r="P7">
-        <v>254.81100000000001</v>
+        <v>272.89699999999999</v>
       </c>
       <c r="Q7">
-        <v>272.125</v>
+        <v>288.36500000000001</v>
       </c>
       <c r="R7">
-        <v>287.51299999999998</v>
+        <v>302.62700000000001</v>
       </c>
       <c r="S7">
-        <v>304.68099999999998</v>
+        <v>319.14499999999998</v>
       </c>
       <c r="T7">
-        <v>319.77499999999998</v>
+        <v>333.767</v>
       </c>
       <c r="U7">
-        <v>334.11099999999999</v>
+        <v>346.63299999999998</v>
       </c>
       <c r="V7">
-        <v>349.84100000000001</v>
+        <v>360.15300000000002</v>
       </c>
       <c r="W7">
-        <v>363.983</v>
+        <v>373.61700000000002</v>
       </c>
       <c r="X7">
-        <v>379.33300000000003</v>
+        <v>386.887</v>
       </c>
       <c r="Y7">
-        <v>394.25900000000001</v>
+        <v>400.13900000000001</v>
       </c>
       <c r="Z7">
-        <v>409.685</v>
+        <v>413.21499999999997</v>
       </c>
       <c r="AA7">
-        <v>426.74299999999999</v>
+        <v>429.14100000000002</v>
       </c>
       <c r="AB7">
-        <v>441.029</v>
+        <v>442.15699999999998</v>
       </c>
       <c r="AC7">
-        <v>454.99299999999999</v>
+        <v>455.303</v>
       </c>
       <c r="AD7">
-        <v>471.05700000000002</v>
+        <v>469.30900000000003</v>
       </c>
       <c r="AE7">
-        <v>487.745</v>
+        <v>483.58100000000002</v>
       </c>
       <c r="AF7">
-        <v>502.99299999999999</v>
+        <v>498.40899999999999</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.35">
@@ -6681,82 +8687,82 @@
         <v>1.758</v>
       </c>
       <c r="G8">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H8">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I8">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="J8">
         <v>2.226</v>
       </c>
-      <c r="H8">
-        <v>2.3820000000000001</v>
-      </c>
-      <c r="I8">
-        <v>2.5379999999999998</v>
-      </c>
-      <c r="J8">
-        <v>2.694</v>
-      </c>
       <c r="K8">
-        <v>2.85</v>
+        <v>2.226</v>
       </c>
       <c r="L8">
-        <v>2.85</v>
+        <v>2.226</v>
       </c>
       <c r="M8">
-        <v>2.85</v>
+        <v>2.226</v>
       </c>
       <c r="N8">
-        <v>2.85</v>
+        <v>2.226</v>
       </c>
       <c r="O8">
-        <v>3.0059999999999998</v>
+        <v>2.226</v>
       </c>
       <c r="P8">
-        <v>3.0059999999999998</v>
+        <v>2.226</v>
       </c>
       <c r="Q8">
-        <v>3.0059999999999998</v>
+        <v>2.226</v>
       </c>
       <c r="R8">
-        <v>3.0059999999999998</v>
+        <v>2.226</v>
       </c>
       <c r="S8">
-        <v>3.0059999999999998</v>
+        <v>2.226</v>
       </c>
       <c r="T8">
-        <v>3.0059999999999998</v>
+        <v>2.226</v>
       </c>
       <c r="U8">
-        <v>3.0059999999999998</v>
+        <v>2.226</v>
       </c>
       <c r="V8">
-        <v>3.0059999999999998</v>
+        <v>2.226</v>
       </c>
       <c r="W8">
-        <v>3.0059999999999998</v>
+        <v>2.226</v>
       </c>
       <c r="X8">
-        <v>3.0059999999999998</v>
+        <v>2.226</v>
       </c>
       <c r="Y8">
-        <v>3.0059999999999998</v>
+        <v>2.226</v>
       </c>
       <c r="Z8">
-        <v>3.0059999999999998</v>
+        <v>2.226</v>
       </c>
       <c r="AA8">
-        <v>3.0059999999999998</v>
+        <v>2.226</v>
       </c>
       <c r="AB8">
-        <v>3.0059999999999998</v>
+        <v>2.226</v>
       </c>
       <c r="AC8">
-        <v>3.0059999999999998</v>
+        <v>2.226</v>
       </c>
       <c r="AD8">
-        <v>3.0059999999999998</v>
+        <v>2.226</v>
       </c>
       <c r="AE8">
-        <v>3.0059999999999998</v>
+        <v>2.226</v>
       </c>
       <c r="AF8">
-        <v>3.0059999999999998</v>
+        <v>2.226</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.35">
@@ -6770,91 +8776,91 @@
         <v>4.9429999999999996</v>
       </c>
       <c r="D9">
+        <v>4.9790000000000001</v>
+      </c>
+      <c r="E9">
         <v>4.9969999999999999</v>
       </c>
-      <c r="E9">
-        <v>5.0149999999999997</v>
-      </c>
       <c r="F9">
-        <v>5.0149999999999997</v>
+        <v>4.9969999999999999</v>
       </c>
       <c r="G9">
-        <v>5.1589999999999998</v>
+        <v>5.0330000000000004</v>
       </c>
       <c r="H9">
-        <v>5.2489999999999997</v>
+        <v>5.0510000000000002</v>
       </c>
       <c r="I9">
-        <v>5.3209999999999997</v>
+        <v>5.069</v>
       </c>
       <c r="J9">
-        <v>5.3929999999999998</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="K9">
-        <v>5.4470000000000001</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="L9">
-        <v>5.4649999999999999</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="M9">
-        <v>5.4829999999999997</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="N9">
-        <v>5.5010000000000003</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="O9">
-        <v>5.5369999999999999</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="P9">
-        <v>5.5549999999999997</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="Q9">
-        <v>5.5730000000000004</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="R9">
-        <v>5.5910000000000002</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="S9">
-        <v>5.609</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="T9">
-        <v>5.6269999999999998</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="U9">
-        <v>5.6449999999999996</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="V9">
-        <v>5.6630000000000003</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="W9">
-        <v>5.681</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="X9">
-        <v>5.6989999999999998</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="Y9">
-        <v>5.7169999999999996</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="Z9">
-        <v>5.7350000000000003</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="AA9">
-        <v>5.7530000000000001</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="AB9">
-        <v>5.7530000000000001</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="AC9">
-        <v>5.7530000000000001</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="AD9">
-        <v>5.7530000000000001</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="AE9">
-        <v>5.7530000000000001</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="AF9">
-        <v>5.7530000000000001</v>
+        <v>5.1050000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.35">
@@ -6862,97 +8868,97 @@
         <v>269</v>
       </c>
       <c r="B10">
-        <v>2.516</v>
+        <v>2.5190000000000001</v>
       </c>
       <c r="C10">
-        <v>2.556</v>
+        <v>2.5579999999999998</v>
       </c>
       <c r="D10">
-        <v>2.556</v>
+        <v>2.597</v>
       </c>
       <c r="E10">
-        <v>2.556</v>
+        <v>2.597</v>
       </c>
       <c r="F10">
-        <v>2.556</v>
+        <v>2.597</v>
       </c>
       <c r="G10">
-        <v>2.8460000000000001</v>
+        <v>2.714</v>
       </c>
       <c r="H10">
-        <v>3.0259999999999998</v>
+        <v>2.8050000000000002</v>
       </c>
       <c r="I10">
-        <v>3.1760000000000002</v>
+        <v>2.883</v>
       </c>
       <c r="J10">
-        <v>3.3660000000000001</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>3.5059999999999998</v>
+        <v>3.0779999999999998</v>
       </c>
       <c r="L10">
-        <v>3.5859999999999999</v>
+        <v>3.117</v>
       </c>
       <c r="M10">
-        <v>3.6459999999999999</v>
+        <v>3.1429999999999998</v>
       </c>
       <c r="N10">
-        <v>3.706</v>
+        <v>3.1819999999999999</v>
       </c>
       <c r="O10">
-        <v>3.806</v>
+        <v>3.234</v>
       </c>
       <c r="P10">
-        <v>3.8860000000000001</v>
+        <v>3.2730000000000001</v>
       </c>
       <c r="Q10">
-        <v>3.9660000000000002</v>
+        <v>3.3119999999999998</v>
       </c>
       <c r="R10">
-        <v>4.0259999999999998</v>
+        <v>3.3380000000000001</v>
       </c>
       <c r="S10">
-        <v>4.0960000000000001</v>
+        <v>3.3769999999999998</v>
       </c>
       <c r="T10">
-        <v>4.1559999999999997</v>
+        <v>3.403</v>
       </c>
       <c r="U10">
-        <v>4.2060000000000004</v>
+        <v>3.4289999999999998</v>
       </c>
       <c r="V10">
-        <v>4.2560000000000002</v>
+        <v>3.4550000000000001</v>
       </c>
       <c r="W10">
-        <v>4.306</v>
+        <v>3.4809999999999999</v>
       </c>
       <c r="X10">
-        <v>4.3559999999999999</v>
+        <v>3.5070000000000001</v>
       </c>
       <c r="Y10">
-        <v>4.4059999999999997</v>
+        <v>3.5329999999999999</v>
       </c>
       <c r="Z10">
-        <v>4.4560000000000004</v>
+        <v>3.5459999999999998</v>
       </c>
       <c r="AA10">
-        <v>4.5060000000000002</v>
+        <v>3.5720000000000001</v>
       </c>
       <c r="AB10">
-        <v>4.5460000000000003</v>
+        <v>3.585</v>
       </c>
       <c r="AC10">
-        <v>4.5860000000000003</v>
+        <v>3.5979999999999999</v>
       </c>
       <c r="AD10">
-        <v>4.6260000000000003</v>
+        <v>3.6110000000000002</v>
       </c>
       <c r="AE10">
-        <v>4.6660000000000004</v>
+        <v>3.6240000000000001</v>
       </c>
       <c r="AF10">
-        <v>4.7060000000000004</v>
+        <v>3.637</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.35">
@@ -6966,91 +8972,91 @@
         <v>26.4</v>
       </c>
       <c r="D11">
-        <v>26.4</v>
+        <v>26.425000000000001</v>
       </c>
       <c r="E11">
-        <v>26.4</v>
+        <v>26.425000000000001</v>
       </c>
       <c r="F11">
-        <v>26.4</v>
+        <v>26.425000000000001</v>
       </c>
       <c r="G11">
-        <v>26.402999999999999</v>
+        <v>26.425000000000001</v>
       </c>
       <c r="H11">
-        <v>26.419</v>
+        <v>26.436</v>
       </c>
       <c r="I11">
-        <v>26.437999999999999</v>
+        <v>26.456</v>
       </c>
       <c r="J11">
-        <v>26.46</v>
+        <v>26.478999999999999</v>
       </c>
       <c r="K11">
-        <v>26.478000000000002</v>
+        <v>26.501000000000001</v>
       </c>
       <c r="L11">
-        <v>26.49</v>
+        <v>26.515000000000001</v>
       </c>
       <c r="M11">
-        <v>26.5</v>
+        <v>26.527000000000001</v>
       </c>
       <c r="N11">
-        <v>26.513000000000002</v>
+        <v>26.54</v>
       </c>
       <c r="O11">
-        <v>26.521000000000001</v>
+        <v>26.547999999999998</v>
       </c>
       <c r="P11">
-        <v>26.533999999999999</v>
+        <v>26.56</v>
       </c>
       <c r="Q11">
-        <v>26.545000000000002</v>
+        <v>26.571999999999999</v>
       </c>
       <c r="R11">
-        <v>26.556999999999999</v>
+        <v>26.584</v>
       </c>
       <c r="S11">
-        <v>26.567</v>
+        <v>26.594000000000001</v>
       </c>
       <c r="T11">
-        <v>26.577000000000002</v>
+        <v>26.603999999999999</v>
       </c>
       <c r="U11">
-        <v>26.587</v>
+        <v>26.613</v>
       </c>
       <c r="V11">
-        <v>26.597000000000001</v>
+        <v>26.623000000000001</v>
       </c>
       <c r="W11">
-        <v>26.606999999999999</v>
+        <v>26.632000000000001</v>
       </c>
       <c r="X11">
-        <v>26.616</v>
+        <v>26.640999999999998</v>
       </c>
       <c r="Y11">
-        <v>26.625</v>
+        <v>26.649000000000001</v>
       </c>
       <c r="Z11">
-        <v>26.634</v>
+        <v>26.658000000000001</v>
       </c>
       <c r="AA11">
-        <v>26.643999999999998</v>
+        <v>26.667000000000002</v>
       </c>
       <c r="AB11">
-        <v>26.652999999999999</v>
+        <v>26.675000000000001</v>
       </c>
       <c r="AC11">
-        <v>26.661999999999999</v>
+        <v>26.683</v>
       </c>
       <c r="AD11">
-        <v>26.672000000000001</v>
+        <v>26.690999999999999</v>
       </c>
       <c r="AE11">
-        <v>26.683</v>
+        <v>26.7</v>
       </c>
       <c r="AF11">
-        <v>26.695</v>
+        <v>26.709</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.35">
@@ -7058,97 +9064,97 @@
         <v>271</v>
       </c>
       <c r="B12">
-        <v>197.745</v>
+        <v>129.09899999999999</v>
       </c>
       <c r="C12">
-        <v>199.595</v>
+        <v>130.84899999999999</v>
       </c>
       <c r="D12">
-        <v>199.89500000000001</v>
+        <v>131.54900000000001</v>
       </c>
       <c r="E12">
-        <v>200.39500000000001</v>
+        <v>132.899</v>
       </c>
       <c r="F12">
-        <v>200.79499999999999</v>
+        <v>133.59899999999999</v>
       </c>
       <c r="G12">
-        <v>202.39500000000001</v>
+        <v>133.649</v>
       </c>
       <c r="H12">
-        <v>210.495</v>
+        <v>138.59899999999999</v>
       </c>
       <c r="I12">
-        <v>218.89500000000001</v>
+        <v>146.69900000000001</v>
       </c>
       <c r="J12">
-        <v>228.19499999999999</v>
+        <v>155.44900000000001</v>
       </c>
       <c r="K12">
-        <v>237.69499999999999</v>
+        <v>165.649</v>
       </c>
       <c r="L12">
-        <v>245.19499999999999</v>
+        <v>173.59899999999999</v>
       </c>
       <c r="M12">
-        <v>251.64500000000001</v>
+        <v>180.649</v>
       </c>
       <c r="N12">
-        <v>259.29500000000002</v>
+        <v>187.649</v>
       </c>
       <c r="O12">
-        <v>264.39499999999998</v>
+        <v>192.19900000000001</v>
       </c>
       <c r="P12">
-        <v>272.14499999999998</v>
+        <v>199.249</v>
       </c>
       <c r="Q12">
-        <v>278.995</v>
+        <v>206.499</v>
       </c>
       <c r="R12">
-        <v>285.995</v>
+        <v>213.399</v>
       </c>
       <c r="S12">
-        <v>292.84500000000003</v>
+        <v>220.29900000000001</v>
       </c>
       <c r="T12">
-        <v>299.745</v>
+        <v>227.34899999999999</v>
       </c>
       <c r="U12">
-        <v>306.745</v>
+        <v>233.84899999999999</v>
       </c>
       <c r="V12">
-        <v>313.84500000000003</v>
+        <v>240.79900000000001</v>
       </c>
       <c r="W12">
-        <v>320.94499999999999</v>
+        <v>246.899</v>
       </c>
       <c r="X12">
-        <v>328.04500000000002</v>
+        <v>253.399</v>
       </c>
       <c r="Y12">
-        <v>335.64499999999998</v>
+        <v>259.899</v>
       </c>
       <c r="Z12">
-        <v>343.14499999999998</v>
+        <v>267.44900000000001</v>
       </c>
       <c r="AA12">
-        <v>351.29500000000002</v>
+        <v>275.09899999999999</v>
       </c>
       <c r="AB12">
-        <v>359.34500000000003</v>
+        <v>282.44900000000001</v>
       </c>
       <c r="AC12">
-        <v>367.14499999999998</v>
+        <v>290.149</v>
       </c>
       <c r="AD12">
-        <v>375.59500000000003</v>
+        <v>297.399</v>
       </c>
       <c r="AE12">
-        <v>384.64499999999998</v>
+        <v>305.649</v>
       </c>
       <c r="AF12">
-        <v>394.39499999999998</v>
+        <v>314.34899999999999</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.35">
@@ -7260,91 +9266,91 @@
         <v>3.9E-2</v>
       </c>
       <c r="D14">
-        <v>5.8999999999999997E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="E14">
-        <v>0.97899999999999998</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F14">
-        <v>2.089</v>
+        <v>1.9790000000000001</v>
       </c>
       <c r="G14">
-        <v>3.2440000000000002</v>
+        <v>2.4889999999999999</v>
       </c>
       <c r="H14">
-        <v>4.0839999999999996</v>
+        <v>3.0339999999999998</v>
       </c>
       <c r="I14">
-        <v>4.8639999999999999</v>
+        <v>4.7089999999999996</v>
       </c>
       <c r="J14">
-        <v>5.9139999999999997</v>
+        <v>5.3739999999999997</v>
       </c>
       <c r="K14">
-        <v>6.3140000000000001</v>
+        <v>5.6189999999999998</v>
       </c>
       <c r="L14">
-        <v>6.5640000000000001</v>
+        <v>5.7690000000000001</v>
       </c>
       <c r="M14">
-        <v>6.7590000000000003</v>
+        <v>5.8840000000000003</v>
       </c>
       <c r="N14">
-        <v>6.984</v>
+        <v>6.0339999999999998</v>
       </c>
       <c r="O14">
-        <v>7.3490000000000002</v>
+        <v>6.2690000000000001</v>
       </c>
       <c r="P14">
-        <v>7.6539999999999999</v>
+        <v>6.4539999999999997</v>
       </c>
       <c r="Q14">
-        <v>7.9690000000000003</v>
+        <v>6.6239999999999997</v>
       </c>
       <c r="R14">
-        <v>8.2539999999999996</v>
+        <v>6.7839999999999998</v>
       </c>
       <c r="S14">
-        <v>8.5739999999999998</v>
+        <v>6.9690000000000003</v>
       </c>
       <c r="T14">
-        <v>8.859</v>
+        <v>7.1340000000000003</v>
       </c>
       <c r="U14">
-        <v>9.1340000000000003</v>
+        <v>7.2789999999999999</v>
       </c>
       <c r="V14">
-        <v>9.4339999999999993</v>
+        <v>7.4340000000000002</v>
       </c>
       <c r="W14">
-        <v>9.7089999999999996</v>
+        <v>7.5890000000000004</v>
       </c>
       <c r="X14">
-        <v>10.013999999999999</v>
+        <v>7.7439999999999998</v>
       </c>
       <c r="Y14">
-        <v>10.314</v>
+        <v>7.9039999999999999</v>
       </c>
       <c r="Z14">
-        <v>10.629</v>
+        <v>8.0589999999999993</v>
       </c>
       <c r="AA14">
-        <v>10.978999999999999</v>
+        <v>8.2490000000000006</v>
       </c>
       <c r="AB14">
-        <v>11.279</v>
+        <v>8.4090000000000007</v>
       </c>
       <c r="AC14">
-        <v>11.574</v>
+        <v>8.5690000000000008</v>
       </c>
       <c r="AD14">
-        <v>11.919</v>
+        <v>8.7439999999999998</v>
       </c>
       <c r="AE14">
-        <v>12.279</v>
+        <v>8.9239999999999995</v>
       </c>
       <c r="AF14">
-        <v>12.609</v>
+        <v>9.109</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.35">
@@ -7563,82 +9569,82 @@
         <v>1.76</v>
       </c>
       <c r="G17">
-        <v>1.97</v>
+        <v>1.8080000000000001</v>
       </c>
       <c r="H17">
-        <v>2.1659999999999999</v>
+        <v>1.8560000000000001</v>
       </c>
       <c r="I17">
-        <v>2.3199999999999998</v>
+        <v>1.8879999999999999</v>
       </c>
       <c r="J17">
-        <v>2.4460000000000002</v>
+        <v>1.92</v>
       </c>
       <c r="K17">
-        <v>2.544</v>
+        <v>1.952</v>
       </c>
       <c r="L17">
-        <v>2.6280000000000001</v>
+        <v>1.968</v>
       </c>
       <c r="M17">
-        <v>2.698</v>
+        <v>1.984</v>
       </c>
       <c r="N17">
-        <v>2.7679999999999998</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>2.8380000000000001</v>
+        <v>2.016</v>
       </c>
       <c r="P17">
-        <v>2.8940000000000001</v>
+        <v>2.032</v>
       </c>
       <c r="Q17">
-        <v>2.95</v>
+        <v>2.048</v>
       </c>
       <c r="R17">
-        <v>3.0059999999999998</v>
+        <v>2.0640000000000001</v>
       </c>
       <c r="S17">
-        <v>3.0619999999999998</v>
+        <v>2.08</v>
       </c>
       <c r="T17">
-        <v>3.1040000000000001</v>
+        <v>2.0960000000000001</v>
       </c>
       <c r="U17">
-        <v>3.1459999999999999</v>
+        <v>2.0960000000000001</v>
       </c>
       <c r="V17">
-        <v>3.1880000000000002</v>
+        <v>2.0960000000000001</v>
       </c>
       <c r="W17">
-        <v>3.23</v>
+        <v>2.0960000000000001</v>
       </c>
       <c r="X17">
-        <v>3.2719999999999998</v>
+        <v>2.0960000000000001</v>
       </c>
       <c r="Y17">
-        <v>3.3140000000000001</v>
+        <v>2.0960000000000001</v>
       </c>
       <c r="Z17">
-        <v>3.3420000000000001</v>
+        <v>2.0960000000000001</v>
       </c>
       <c r="AA17">
-        <v>3.37</v>
+        <v>2.0960000000000001</v>
       </c>
       <c r="AB17">
-        <v>3.3980000000000001</v>
+        <v>2.0960000000000001</v>
       </c>
       <c r="AC17">
-        <v>3.4260000000000002</v>
+        <v>2.0960000000000001</v>
       </c>
       <c r="AD17">
-        <v>3.4540000000000002</v>
+        <v>2.0960000000000001</v>
       </c>
       <c r="AE17">
-        <v>3.4820000000000002</v>
+        <v>2.0960000000000001</v>
       </c>
       <c r="AF17">
-        <v>3.51</v>
+        <v>2.0960000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7650,13 +9656,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F4A00D-FEE1-4109-9021-DF78FFA4A8D5}">
   <dimension ref="A1:AF49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:AF49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.6328125" customWidth="1"/>
+    <col min="1" max="1" width="63.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.35">
@@ -7762,97 +9768,97 @@
         <v>277</v>
       </c>
       <c r="B2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="C2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="D2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="E2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="F2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="G2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="H2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="I2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="J2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="K2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="L2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="M2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="N2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="O2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="P2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="Q2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="R2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="S2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="T2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="U2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="V2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="W2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="X2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="Y2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="Z2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="AA2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="AB2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="AC2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="AD2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="AE2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
       <c r="AF2">
-        <v>7884</v>
+        <v>3854.4</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
@@ -7860,97 +9866,97 @@
         <v>278</v>
       </c>
       <c r="B3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>7884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
@@ -7958,97 +9964,97 @@
         <v>279</v>
       </c>
       <c r="B4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="C4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="D4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="E4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="F4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="G4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="H4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="I4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="J4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="K4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="L4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="M4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="N4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="O4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="P4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="Q4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="R4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="S4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="T4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="U4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="V4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="W4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="X4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="Y4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="Z4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="AA4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="AB4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="AC4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="AD4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="AE4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
       <c r="AF4">
-        <v>7884</v>
+        <v>4239.84</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
@@ -8350,97 +10356,97 @@
         <v>283</v>
       </c>
       <c r="B8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="C8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="D8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="E8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="F8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="G8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="H8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="I8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="J8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="K8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="L8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="M8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="N8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="O8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="P8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="Q8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="R8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="S8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="T8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="U8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="V8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="W8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="X8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="Y8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="Z8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="AA8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="AB8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="AC8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="AD8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="AE8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="AF8">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.35">
@@ -8546,97 +10552,97 @@
         <v>285</v>
       </c>
       <c r="B10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="C10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="D10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="E10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="F10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="G10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="H10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="I10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="J10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="K10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="L10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="M10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="N10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="O10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="P10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="Q10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="R10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="S10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="T10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="U10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="V10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="W10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="X10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="Y10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="Z10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="AA10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="AB10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="AC10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="AD10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="AE10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
       <c r="AF10">
-        <v>8181.84</v>
+        <v>8094.24</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.35">
@@ -8644,97 +10650,97 @@
         <v>286</v>
       </c>
       <c r="B11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="C11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="D11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="E11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="F11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="G11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="H11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="I11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="J11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="K11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="L11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="M11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="N11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="O11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="P11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="Q11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="R11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="S11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="T11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="U11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="V11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="W11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="X11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="Y11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="Z11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="AA11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="AB11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="AC11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="AD11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="AE11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
       <c r="AF11">
-        <v>3609.12</v>
+        <v>3565.32</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.35">
@@ -8840,97 +10846,97 @@
         <v>288</v>
       </c>
       <c r="B13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="C13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="D13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="E13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="F13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="G13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="H13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="I13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="J13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="K13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="L13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="M13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="N13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="O13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="P13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="Q13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="R13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="S13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="T13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="U13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="V13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="W13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="X13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="Y13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="Z13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="AA13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="AB13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="AC13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="AD13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="AE13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
       <c r="AF13">
-        <v>3968.28</v>
+        <v>3924.48</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.35">
@@ -8938,97 +10944,97 @@
         <v>289</v>
       </c>
       <c r="B14">
-        <v>2963.16</v>
+        <v>3047.38</v>
       </c>
       <c r="C14">
-        <v>2954.41</v>
+        <v>3038.14</v>
       </c>
       <c r="D14">
-        <v>2944.16</v>
+        <v>3029.17</v>
       </c>
       <c r="E14">
-        <v>2942.65</v>
+        <v>3025.37</v>
       </c>
       <c r="F14">
-        <v>2941.97</v>
+        <v>3023.83</v>
       </c>
       <c r="G14">
-        <v>2942.23</v>
+        <v>3022.98</v>
       </c>
       <c r="H14">
-        <v>2921.15</v>
+        <v>3012.73</v>
       </c>
       <c r="I14">
-        <v>2911.11</v>
+        <v>3008.33</v>
       </c>
       <c r="J14">
-        <v>2903.59</v>
+        <v>3008.2</v>
       </c>
       <c r="K14">
-        <v>2892.52</v>
+        <v>3003.77</v>
       </c>
       <c r="L14">
-        <v>2886.74</v>
+        <v>3003.41</v>
       </c>
       <c r="M14">
-        <v>2884.08</v>
+        <v>3004.03</v>
       </c>
       <c r="N14">
-        <v>2883.34</v>
+        <v>3006.23</v>
       </c>
       <c r="O14">
-        <v>2882.3</v>
+        <v>3006.54</v>
       </c>
       <c r="P14">
-        <v>2876.01</v>
+        <v>3003.68</v>
       </c>
       <c r="Q14">
-        <v>2876.04</v>
+        <v>3003.86</v>
       </c>
       <c r="R14">
-        <v>2872.68</v>
+        <v>3003.9</v>
       </c>
       <c r="S14">
-        <v>2870.8</v>
+        <v>3004.28</v>
       </c>
       <c r="T14">
-        <v>2868.13</v>
+        <v>3004.08</v>
       </c>
       <c r="U14">
-        <v>2866.31</v>
+        <v>3004.64</v>
       </c>
       <c r="V14">
-        <v>2865.49</v>
+        <v>3005.13</v>
       </c>
       <c r="W14">
-        <v>2863.61</v>
+        <v>3005.81</v>
       </c>
       <c r="X14">
-        <v>2862.8</v>
+        <v>3006.22</v>
       </c>
       <c r="Y14">
-        <v>2861.47</v>
+        <v>3007.22</v>
       </c>
       <c r="Z14">
-        <v>2860.33</v>
+        <v>3007.59</v>
       </c>
       <c r="AA14">
-        <v>2859.44</v>
+        <v>3008.38</v>
       </c>
       <c r="AB14">
-        <v>2858.07</v>
+        <v>3008.75</v>
       </c>
       <c r="AC14">
-        <v>2857.6</v>
+        <v>3009.25</v>
       </c>
       <c r="AD14">
-        <v>2857.57</v>
+        <v>3010.01</v>
       </c>
       <c r="AE14">
-        <v>2856.72</v>
+        <v>3010.88</v>
       </c>
       <c r="AF14">
-        <v>2856.4</v>
+        <v>3011.59</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.35">
@@ -9134,97 +11140,97 @@
         <v>291</v>
       </c>
       <c r="B16">
-        <v>3368.01</v>
+        <v>3461.76</v>
       </c>
       <c r="C16">
-        <v>3383.84</v>
+        <v>3477.08</v>
       </c>
       <c r="D16">
-        <v>3397.77</v>
+        <v>3492.55</v>
       </c>
       <c r="E16">
-        <v>3430.24</v>
+        <v>3513.89</v>
       </c>
       <c r="F16">
-        <v>3455.11</v>
+        <v>3537.79</v>
       </c>
       <c r="G16">
-        <v>3481.06</v>
+        <v>3553.93</v>
       </c>
       <c r="H16">
-        <v>3481.6</v>
+        <v>3567.48</v>
       </c>
       <c r="I16">
-        <v>3503.49</v>
+        <v>3587.84</v>
       </c>
       <c r="J16">
-        <v>3519.75</v>
+        <v>3613.25</v>
       </c>
       <c r="K16">
-        <v>3531.57</v>
+        <v>3633.45</v>
       </c>
       <c r="L16">
-        <v>3558.08</v>
+        <v>3658.55</v>
       </c>
       <c r="M16">
-        <v>3579.95</v>
+        <v>3667.8</v>
       </c>
       <c r="N16">
-        <v>3579.03</v>
+        <v>3670.5</v>
       </c>
       <c r="O16">
-        <v>3586.11</v>
+        <v>3679.4</v>
       </c>
       <c r="P16">
-        <v>3578.29</v>
+        <v>3684.41</v>
       </c>
       <c r="Q16">
-        <v>3586.7</v>
+        <v>3693.13</v>
       </c>
       <c r="R16">
-        <v>3582.5</v>
+        <v>3693.18</v>
       </c>
       <c r="S16">
-        <v>3580.16</v>
+        <v>3702.15</v>
       </c>
       <c r="T16">
-        <v>3585.17</v>
+        <v>3710.42</v>
       </c>
       <c r="U16">
-        <v>3582.89</v>
+        <v>3719.62</v>
       </c>
       <c r="V16">
-        <v>3590.19</v>
+        <v>3720.23</v>
       </c>
       <c r="W16">
-        <v>3587.84</v>
+        <v>3729.59</v>
       </c>
       <c r="X16">
-        <v>3595.15</v>
+        <v>3738.61</v>
       </c>
       <c r="Y16">
-        <v>3593.47</v>
+        <v>3748.38</v>
       </c>
       <c r="Z16">
-        <v>3600.36</v>
+        <v>3748.84</v>
       </c>
       <c r="AA16">
-        <v>3599.24</v>
+        <v>3758.35</v>
       </c>
       <c r="AB16">
-        <v>3597.52</v>
+        <v>3767.33</v>
       </c>
       <c r="AC16">
-        <v>3605.22</v>
+        <v>3776.49</v>
       </c>
       <c r="AD16">
-        <v>3605.19</v>
+        <v>3777.43</v>
       </c>
       <c r="AE16">
-        <v>3612.42</v>
+        <v>3787.06</v>
       </c>
       <c r="AF16">
-        <v>3612.02</v>
+        <v>3796.48</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.35">
@@ -9232,97 +11238,97 @@
         <v>292</v>
       </c>
       <c r="B17">
-        <v>2110.09</v>
+        <v>2103.9299999999998</v>
       </c>
       <c r="C17">
-        <v>2104.44</v>
+        <v>2097.9</v>
       </c>
       <c r="D17">
-        <v>2095.5500000000002</v>
+        <v>2089.8000000000002</v>
       </c>
       <c r="E17">
-        <v>2087.9</v>
+        <v>2078.46</v>
       </c>
       <c r="F17">
-        <v>2082.13</v>
+        <v>2068.66</v>
       </c>
       <c r="G17">
-        <v>2080.12</v>
+        <v>2064.5100000000002</v>
       </c>
       <c r="H17">
-        <v>2064.2199999999998</v>
+        <v>2052.2399999999998</v>
       </c>
       <c r="I17">
-        <v>2057.4</v>
+        <v>2046.65</v>
       </c>
       <c r="J17">
-        <v>2050.81</v>
+        <v>2043.81</v>
       </c>
       <c r="K17">
-        <v>2040.54</v>
+        <v>2035.6</v>
       </c>
       <c r="L17">
-        <v>2032.8</v>
+        <v>2031.26</v>
       </c>
       <c r="M17">
-        <v>2026.98</v>
+        <v>2028.22</v>
       </c>
       <c r="N17">
-        <v>2022.87</v>
+        <v>2027.46</v>
       </c>
       <c r="O17">
-        <v>2018.41</v>
+        <v>2024.2</v>
       </c>
       <c r="P17">
-        <v>2008.57</v>
+        <v>2016.27</v>
       </c>
       <c r="Q17">
-        <v>2004.59</v>
+        <v>2012.54</v>
       </c>
       <c r="R17">
-        <v>1997.33</v>
+        <v>2008.6</v>
       </c>
       <c r="S17">
-        <v>1991.59</v>
+        <v>2005.26</v>
       </c>
       <c r="T17">
-        <v>1984.85</v>
+        <v>2001</v>
       </c>
       <c r="U17">
-        <v>1979.17</v>
+        <v>1998</v>
       </c>
       <c r="V17">
-        <v>1974.59</v>
+        <v>1995.15</v>
       </c>
       <c r="W17">
-        <v>1968.89</v>
+        <v>1992.54</v>
       </c>
       <c r="X17">
-        <v>1964.46</v>
+        <v>1989.49</v>
       </c>
       <c r="Y17">
-        <v>1959.42</v>
+        <v>1987.45</v>
       </c>
       <c r="Z17">
-        <v>1954.64</v>
+        <v>1984.54</v>
       </c>
       <c r="AA17">
-        <v>1950.18</v>
+        <v>1982.31</v>
       </c>
       <c r="AB17">
-        <v>1945.26</v>
+        <v>1979.13</v>
       </c>
       <c r="AC17">
-        <v>1941.58</v>
+        <v>1976.49</v>
       </c>
       <c r="AD17">
-        <v>1938.56</v>
+        <v>1974.27</v>
       </c>
       <c r="AE17">
-        <v>1934.45</v>
+        <v>1972.28</v>
       </c>
       <c r="AF17">
-        <v>1931.15</v>
+        <v>1970.1</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.35">
@@ -9428,97 +11434,97 @@
         <v>294</v>
       </c>
       <c r="B19">
-        <v>1962.47</v>
+        <v>2112.63</v>
       </c>
       <c r="C19">
-        <v>1983.19</v>
+        <v>2123.91</v>
       </c>
       <c r="D19">
-        <v>1992.07</v>
+        <v>2132.98</v>
       </c>
       <c r="E19">
-        <v>2001.98</v>
+        <v>2138.58</v>
       </c>
       <c r="F19">
-        <v>2013.59</v>
+        <v>2154.14</v>
       </c>
       <c r="G19">
-        <v>2028.76</v>
+        <v>2166.89</v>
       </c>
       <c r="H19">
-        <v>2038.74</v>
+        <v>2170.96</v>
       </c>
       <c r="I19">
-        <v>2048.9299999999998</v>
+        <v>2190.4299999999998</v>
       </c>
       <c r="J19">
-        <v>2059.25</v>
+        <v>2204.27</v>
       </c>
       <c r="K19">
-        <v>2065.73</v>
+        <v>2212.2399999999998</v>
       </c>
       <c r="L19">
-        <v>2074.62</v>
+        <v>2232.71</v>
       </c>
       <c r="M19">
-        <v>2093.7199999999998</v>
+        <v>2237.75</v>
       </c>
       <c r="N19">
-        <v>2089.4699999999998</v>
+        <v>2245.2800000000002</v>
       </c>
       <c r="O19">
-        <v>2093.16</v>
+        <v>2250.0500000000002</v>
       </c>
       <c r="P19">
-        <v>2091.23</v>
+        <v>2249.5500000000002</v>
       </c>
       <c r="Q19">
-        <v>2095.33</v>
+        <v>2253.71</v>
       </c>
       <c r="R19">
-        <v>2095.96</v>
+        <v>2257.6</v>
       </c>
       <c r="S19">
-        <v>2098.13</v>
+        <v>2262.13</v>
       </c>
       <c r="T19">
-        <v>2099.1999999999998</v>
+        <v>2265.59</v>
       </c>
       <c r="U19">
-        <v>2101.34</v>
+        <v>2270.46</v>
       </c>
       <c r="V19">
-        <v>2104.61</v>
+        <v>2275.46</v>
       </c>
       <c r="W19">
-        <v>2106.63</v>
+        <v>2280.71</v>
       </c>
       <c r="X19">
-        <v>2109.98</v>
+        <v>2285.4499999999998</v>
       </c>
       <c r="Y19">
-        <v>2112.63</v>
+        <v>2291.3200000000002</v>
       </c>
       <c r="Z19">
-        <v>2115.52</v>
+        <v>2296.17</v>
       </c>
       <c r="AA19">
-        <v>2118.7199999999998</v>
+        <v>2301.77</v>
       </c>
       <c r="AB19">
-        <v>2121.38</v>
+        <v>2306.2600000000002</v>
       </c>
       <c r="AC19">
-        <v>2125.35</v>
+        <v>2311.35</v>
       </c>
       <c r="AD19">
-        <v>2130.02</v>
+        <v>2316.91</v>
       </c>
       <c r="AE19">
-        <v>2133.4699999999998</v>
+        <v>2322.7199999999998</v>
       </c>
       <c r="AF19">
-        <v>2137.7800000000002</v>
+        <v>2328.29</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.35">
@@ -9526,97 +11532,97 @@
         <v>295</v>
       </c>
       <c r="B20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="C20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="D20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="E20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="F20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="G20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="H20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="I20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="J20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="K20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="L20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="M20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="N20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="O20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="P20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="Q20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="R20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="S20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="T20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="U20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="V20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="W20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="X20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="Y20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="Z20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="AA20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="AB20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="AC20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="AD20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="AE20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
       <c r="AF20">
-        <v>1857.12</v>
+        <v>1804.56</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.35">
@@ -9722,97 +11728,97 @@
         <v>297</v>
       </c>
       <c r="B22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="C22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="D22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="E22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="F22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="G22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="H22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="I22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="J22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="K22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="L22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="M22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="N22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="O22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="P22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="Q22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="R22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="S22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="T22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="U22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="V22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="W22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="X22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="Y22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="Z22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="AA22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="AB22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="AC22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="AD22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="AE22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
       <c r="AF22">
-        <v>5159.6400000000003</v>
+        <v>5045.76</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.35">
@@ -10114,97 +12120,97 @@
         <v>301</v>
       </c>
       <c r="B26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="C26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="D26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="E26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="F26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="G26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="H26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="I26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="J26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="K26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="L26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="M26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="N26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="O26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="P26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="Q26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="R26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="S26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="T26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="U26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="V26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="W26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="X26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="Y26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="Z26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="AA26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="AB26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="AC26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="AD26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="AE26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
       <c r="AF26">
-        <v>6096.96</v>
+        <v>6053.16</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.35">
@@ -10310,97 +12316,97 @@
         <v>303</v>
       </c>
       <c r="B28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="C28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="D28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="E28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="F28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="G28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="H28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="I28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="J28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="K28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="L28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="M28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="N28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="O28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="P28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="Q28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="R28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="S28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="T28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="U28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="V28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="W28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="X28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="Y28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="Z28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="AA28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="AB28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="AC28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="AD28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="AE28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
       <c r="AF28">
-        <v>6710.16</v>
+        <v>6657.6</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.35">
@@ -10408,97 +12414,97 @@
         <v>304</v>
       </c>
       <c r="B29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="C29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="D29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="E29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="F29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="G29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="H29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="I29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="J29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="K29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="L29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="M29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="N29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="O29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="P29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="Q29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="R29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="S29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="T29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="U29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="V29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="W29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="X29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="Y29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="Z29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="AA29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="AB29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="AC29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="AD29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="AE29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="AF29">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.35">
@@ -10604,97 +12610,97 @@
         <v>306</v>
       </c>
       <c r="B31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="C31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="D31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="E31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="F31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="G31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="H31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="I31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="J31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="K31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="L31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="M31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="N31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="O31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="P31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="Q31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="R31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="S31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="T31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="U31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="V31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="W31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="X31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="Y31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="Z31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="AA31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="AB31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="AC31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="AD31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="AE31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="AF31">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.35">
@@ -10702,97 +12708,97 @@
         <v>307</v>
       </c>
       <c r="B32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="C32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="D32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="E32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="F32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="G32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="H32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="I32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="J32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="K32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="L32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="M32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="N32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="O32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="P32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="Q32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="R32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="S32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="T32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="U32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="V32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="W32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="X32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="Y32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="Z32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="AA32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="AB32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="AC32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="AD32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="AE32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
       <c r="AF32">
-        <v>1191.3599999999999</v>
+        <v>1165.08</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.35">
@@ -10898,97 +12904,97 @@
         <v>309</v>
       </c>
       <c r="B34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="C34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="D34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="E34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="F34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="G34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="H34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="I34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="J34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="K34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="L34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="M34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="N34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="O34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="P34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="Q34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="R34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="S34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="T34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="U34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="V34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="W34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="X34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="Y34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="Z34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="AA34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="AB34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="AC34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="AD34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="AE34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
       <c r="AF34">
-        <v>1305.24</v>
+        <v>1278.96</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.35">
@@ -10996,97 +13002,97 @@
         <v>310</v>
       </c>
       <c r="B35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="C35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="D35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="E35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="F35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="G35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="H35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="I35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="J35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="K35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="L35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="M35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="N35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="O35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="P35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="Q35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="R35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="S35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="T35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="U35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="V35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="W35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="X35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="Y35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="Z35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="AA35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="AB35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="AC35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="AD35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="AE35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
       <c r="AF35">
-        <v>7884</v>
+        <v>6640.08</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.35">
@@ -11094,97 +13100,97 @@
         <v>311</v>
       </c>
       <c r="B36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="AD36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="AE36">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>7884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.35">
@@ -11192,97 +13198,97 @@
         <v>312</v>
       </c>
       <c r="B37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="C37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="D37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="E37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="F37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="G37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="H37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="I37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="J37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="K37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="L37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="M37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="N37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="O37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="P37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="Q37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="R37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="S37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="T37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="U37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="V37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="W37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="X37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="Y37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="Z37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="AA37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="AB37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="AC37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="AD37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="AE37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
       <c r="AF37">
-        <v>7884</v>
+        <v>7305.84</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.35">
@@ -11290,97 +13296,97 @@
         <v>313</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>4309.92</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.35">
@@ -11489,94 +13495,94 @@
         <v>4309.92</v>
       </c>
       <c r="C40">
-        <v>4336.2</v>
+        <v>4362.4799999999996</v>
       </c>
       <c r="D40">
-        <v>4353.72</v>
+        <v>4406.28</v>
       </c>
       <c r="E40">
-        <v>4371.24</v>
+        <v>4450.08</v>
       </c>
       <c r="F40">
-        <v>4380</v>
+        <v>4485.12</v>
       </c>
       <c r="G40">
-        <v>4397.5200000000004</v>
+        <v>4528.92</v>
       </c>
       <c r="H40">
-        <v>4406.28</v>
+        <v>4563.96</v>
       </c>
       <c r="I40">
-        <v>4415.04</v>
+        <v>4599</v>
       </c>
       <c r="J40">
-        <v>4423.8</v>
+        <v>4634.04</v>
       </c>
       <c r="K40">
-        <v>4432.5600000000004</v>
+        <v>4669.08</v>
       </c>
       <c r="L40">
-        <v>4441.32</v>
+        <v>4704.12</v>
       </c>
       <c r="M40">
-        <v>4441.32</v>
+        <v>4712.88</v>
       </c>
       <c r="N40">
-        <v>4450.08</v>
+        <v>4730.3999999999996</v>
       </c>
       <c r="O40">
-        <v>4458.84</v>
+        <v>4747.92</v>
       </c>
       <c r="P40">
-        <v>4458.84</v>
+        <v>4756.68</v>
       </c>
       <c r="Q40">
-        <v>4467.6000000000004</v>
+        <v>4774.2</v>
       </c>
       <c r="R40">
-        <v>4467.6000000000004</v>
+        <v>4782.96</v>
       </c>
       <c r="S40">
-        <v>4476.3599999999997</v>
+        <v>4800.4799999999996</v>
       </c>
       <c r="T40">
-        <v>4476.3599999999997</v>
+        <v>4809.24</v>
       </c>
       <c r="U40">
-        <v>4485.12</v>
+        <v>4826.76</v>
       </c>
       <c r="V40">
-        <v>4485.12</v>
+        <v>4835.5200000000004</v>
       </c>
       <c r="W40">
-        <v>4493.88</v>
+        <v>4853.04</v>
       </c>
       <c r="X40">
-        <v>4493.88</v>
+        <v>4861.8</v>
       </c>
       <c r="Y40">
-        <v>4502.6400000000003</v>
+        <v>4879.32</v>
       </c>
       <c r="Z40">
-        <v>4502.6400000000003</v>
+        <v>4888.08</v>
       </c>
       <c r="AA40">
-        <v>4502.6400000000003</v>
+        <v>4896.84</v>
       </c>
       <c r="AB40">
-        <v>4511.3999999999996</v>
+        <v>4914.3599999999997</v>
       </c>
       <c r="AC40">
-        <v>4511.3999999999996</v>
+        <v>4923.12</v>
       </c>
       <c r="AD40">
-        <v>4511.3999999999996</v>
+        <v>4931.88</v>
       </c>
       <c r="AE40">
-        <v>4520.16</v>
+        <v>4949.3999999999996</v>
       </c>
       <c r="AF40">
-        <v>4520.16</v>
+        <v>4958.16</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.35">
@@ -11584,97 +13590,97 @@
         <v>316</v>
       </c>
       <c r="B41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="C41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="D41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="E41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="F41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="G41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="H41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="I41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="J41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="K41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="L41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="M41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="N41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="O41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="P41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="Q41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="R41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="S41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="T41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="U41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="V41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="W41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="X41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="Y41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="Z41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="AA41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="AB41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="AC41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="AD41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="AE41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="AF41">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.35">
@@ -11780,97 +13786,97 @@
         <v>318</v>
       </c>
       <c r="B43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="C43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="D43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="E43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="F43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="G43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="H43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="I43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="J43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="K43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="L43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="M43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="N43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="O43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="P43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="Q43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="R43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="S43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="T43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="U43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="V43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="W43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="X43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="Y43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="Z43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="AA43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="AB43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="AC43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="AD43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="AE43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="AF43">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.35">
@@ -11878,97 +13884,97 @@
         <v>319</v>
       </c>
       <c r="B44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="C44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="D44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="E44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="F44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="G44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="H44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="I44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="J44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="K44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="L44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="M44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="N44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="O44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="P44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="Q44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="R44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="S44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="T44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="U44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="V44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="W44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="X44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="Y44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="Z44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="AA44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="AB44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="AC44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="AD44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="AE44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
       <c r="AF44">
-        <v>464.28</v>
+        <v>490.56</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.35">
@@ -12074,97 +14080,97 @@
         <v>321</v>
       </c>
       <c r="B46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="C46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="D46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="E46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="F46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="G46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="H46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="I46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="J46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="K46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="L46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="M46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="N46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="O46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="P46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="Q46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="R46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="S46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="T46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="U46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="V46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="W46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="X46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="Y46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="Z46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="AA46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="AB46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="AC46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="AD46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="AE46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
       <c r="AF46">
-        <v>508.08</v>
+        <v>543.12</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.35">
@@ -12468,74 +14474,46 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2F2634-68D9-4A99-92F0-3688E66AA3CB}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+      <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>2020</v>
       </c>
       <c r="C1">
         <v>2021</v>
       </c>
-      <c r="D1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>325</v>
       </c>
       <c r="B2">
-        <f>'STEO 7d'!J9/('Capacity Factors'!B2*Capacity!B2)*1000</f>
-        <v>0.4615295580843119</v>
+        <f>'STEO 7d'!J9/(SUM(Capacity!B2*'Capacity Factors'!B2,Capacity!B13*'Capacity Factors'!B35))*1000</f>
+        <v>0.8940388967769245</v>
       </c>
       <c r="C2">
-        <f>'STEO 7d'!K9/('Capacity Factors'!C2*Capacity!C2)*1000</f>
-        <v>0.5481326314760212</v>
-      </c>
-      <c r="D2">
-        <f>'STEO 7d'!L9/('Capacity Factors'!D2*Capacity!D2)*1000</f>
-        <v>0.55601384513017515</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <f>'STEO 7d'!K9/(SUM(Capacity!C2*'Capacity Factors'!C2,Capacity!C13*'Capacity Factors'!C35))*1000</f>
+        <v>1.0597433184427261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <f>('STEO 7d'!J8-Capacity!B12*'Capacity Factors'!B32/1000)/('Capacity Factors'!B3*Capacity!B3)*1000</f>
-        <v>0.60963172869734228</v>
+        <f>B2</f>
+        <v>0.8940388967769245</v>
       </c>
       <c r="C3">
-        <f>('STEO 7d'!K8-Capacity!C12*'Capacity Factors'!C32/1000)/('Capacity Factors'!C3*Capacity!C3)*1000</f>
-        <v>0.57839268095210705</v>
-      </c>
-      <c r="D3">
-        <f>('STEO 7d'!L8-Capacity!D12*'Capacity Factors'!D32/1000)/('Capacity Factors'!D3*Capacity!D3)*1000</f>
-        <v>0.56121704084048196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <f>B2</f>
-        <v>0.4615295580843119</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:D4" si="0">C2</f>
-        <v>0.5481326314760212</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.55601384513017515</v>
+        <f>C2</f>
+        <v>1.0597433184427261</v>
       </c>
     </row>
   </sheetData>
@@ -12550,8 +14528,8 @@
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12693,19 +14671,18 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <f>Calculations!B2</f>
-        <v>0.4615295580843119</v>
+        <f>'2020 Calculations'!B2</f>
+        <v>0.8940388967769245</v>
       </c>
       <c r="H2">
-        <f>Calculations!C2</f>
-        <v>0.5481326314760212</v>
+        <f>'2020 Calculations'!C2</f>
+        <v>1.0597433184427261</v>
       </c>
       <c r="I2">
-        <f>Calculations!D2</f>
-        <v>0.55601384513017515</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="D2:AK9" si="0">$B2</f>
+        <f t="shared" ref="J2:AK9" si="0">$B2</f>
         <v>0</v>
       </c>
       <c r="K2">
@@ -12837,19 +14814,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f>Calculations!B3</f>
-        <v>0.60963172869734228</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <f>Calculations!C3</f>
-        <v>0.57839268095210705</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <f>Calculations!D3</f>
-        <v>0.56121704084048196</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="C3:R17" si="1">$B3</f>
+        <f t="shared" ref="J3:R3" si="1">$B3</f>
         <v>0</v>
       </c>
       <c r="K3">
@@ -13799,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <f t="shared" ref="D9:AK14" si="2">$B9</f>
+        <f t="shared" ref="G9:AK14" si="2">$B9</f>
         <v>0</v>
       </c>
       <c r="AK9">
@@ -14253,16 +16227,15 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f>Calculations!B4</f>
-        <v>0.4615295580843119</v>
+        <f>'2020 Calculations'!B3</f>
+        <v>0.8940388967769245</v>
       </c>
       <c r="H13">
-        <f>Calculations!C4</f>
-        <v>0.5481326314760212</v>
+        <f>'2020 Calculations'!C3</f>
+        <v>1.0597433184427261</v>
       </c>
       <c r="I13">
-        <f>Calculations!D4</f>
-        <v>0.55601384513017515</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
@@ -14763,7 +16736,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="D17:AK17" si="3">F17</f>
+        <f t="shared" ref="G17:AK17" si="3">F17</f>
         <v>0</v>
       </c>
       <c r="H17">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE88CF1-B83D-4142-BD38-2B2172C8BD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73A0787-3581-4D21-A9CD-91111CFCA519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="351">
   <si>
     <t>Notes:</t>
   </si>
@@ -1086,6 +1086,9 @@
   </si>
   <si>
     <t>Difference</t>
+  </si>
+  <si>
+    <t>Calibration multiplier (used to ensure 2020 output in the model aligns with STEO)</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1140,6 +1143,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1481,7 +1487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1575,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB677FF-8AA7-4A99-AA5C-83E52BC9397F}">
   <dimension ref="A1:BB120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8096,85 +8102,85 @@
         <v>188.452</v>
       </c>
       <c r="F2">
-        <v>181.614</v>
+        <v>180.82499999999999</v>
       </c>
       <c r="G2">
-        <v>161.88900000000001</v>
+        <v>157.94399999999999</v>
       </c>
       <c r="H2">
-        <v>155.05099999999999</v>
+        <v>149.00200000000001</v>
       </c>
       <c r="I2">
-        <v>148.739</v>
+        <v>141.11199999999999</v>
       </c>
       <c r="J2">
-        <v>137.69300000000001</v>
+        <v>128.22499999999999</v>
       </c>
       <c r="K2">
-        <v>126.64700000000001</v>
+        <v>120.598</v>
       </c>
       <c r="L2">
-        <v>121.913</v>
+        <v>115.864</v>
       </c>
       <c r="M2">
-        <v>121.387</v>
+        <v>115.33799999999999</v>
       </c>
       <c r="N2">
-        <v>119.02</v>
+        <v>112.971</v>
       </c>
       <c r="O2">
-        <v>118.494</v>
+        <v>112.708</v>
       </c>
       <c r="P2">
-        <v>113.497</v>
+        <v>108.76300000000001</v>
       </c>
       <c r="Q2">
-        <v>111.919</v>
+        <v>107.44799999999999</v>
       </c>
       <c r="R2">
-        <v>111.13</v>
+        <v>107.185</v>
       </c>
       <c r="S2">
-        <v>110.867</v>
+        <v>107.185</v>
       </c>
       <c r="T2">
-        <v>109.815</v>
+        <v>106.133</v>
       </c>
       <c r="U2">
-        <v>109.815</v>
+        <v>106.133</v>
       </c>
       <c r="V2">
-        <v>108.23699999999999</v>
+        <v>104.55500000000001</v>
       </c>
       <c r="W2">
-        <v>108.23699999999999</v>
+        <v>104.55500000000001</v>
       </c>
       <c r="X2">
-        <v>108.23699999999999</v>
+        <v>104.55500000000001</v>
       </c>
       <c r="Y2">
-        <v>108.23699999999999</v>
+        <v>104.55500000000001</v>
       </c>
       <c r="Z2">
-        <v>108.23699999999999</v>
+        <v>104.55500000000001</v>
       </c>
       <c r="AA2">
-        <v>105.87</v>
+        <v>102.188</v>
       </c>
       <c r="AB2">
-        <v>105.87</v>
+        <v>102.188</v>
       </c>
       <c r="AC2">
-        <v>105.87</v>
+        <v>102.188</v>
       </c>
       <c r="AD2">
-        <v>105.87</v>
+        <v>102.188</v>
       </c>
       <c r="AE2">
-        <v>105.87</v>
+        <v>102.188</v>
       </c>
       <c r="AF2">
-        <v>105.87</v>
+        <v>102.188</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
@@ -8191,88 +8197,88 @@
         <v>345.38200000000001</v>
       </c>
       <c r="E3">
-        <v>342.57400000000001</v>
+        <v>343.19799999999998</v>
       </c>
       <c r="F3">
-        <v>336.178</v>
+        <v>336.334</v>
       </c>
       <c r="G3">
-        <v>337.11399999999998</v>
+        <v>336.49</v>
       </c>
       <c r="H3">
-        <v>334.93</v>
+        <v>333.37</v>
       </c>
       <c r="I3">
-        <v>334.15</v>
+        <v>332.12200000000001</v>
       </c>
       <c r="J3">
-        <v>334.61799999999999</v>
+        <v>332.74599999999998</v>
       </c>
       <c r="K3">
-        <v>334.30599999999998</v>
+        <v>331.96600000000001</v>
       </c>
       <c r="L3">
-        <v>334.46199999999999</v>
+        <v>330.87400000000002</v>
       </c>
       <c r="M3">
-        <v>333.99400000000003</v>
+        <v>330.25</v>
       </c>
       <c r="N3">
-        <v>333.83800000000002</v>
+        <v>330.56200000000001</v>
       </c>
       <c r="O3">
-        <v>333.68200000000002</v>
+        <v>330.25</v>
       </c>
       <c r="P3">
-        <v>333.83800000000002</v>
+        <v>330.09399999999999</v>
       </c>
       <c r="Q3">
-        <v>332.59</v>
+        <v>329.62599999999998</v>
       </c>
       <c r="R3">
-        <v>332.27800000000002</v>
+        <v>329.15800000000002</v>
       </c>
       <c r="S3">
-        <v>331.654</v>
+        <v>329.47</v>
       </c>
       <c r="T3">
-        <v>331.96600000000001</v>
+        <v>329.78199999999998</v>
       </c>
       <c r="U3">
-        <v>332.27800000000002</v>
+        <v>330.09399999999999</v>
       </c>
       <c r="V3">
-        <v>332.12200000000001</v>
+        <v>329.78199999999998</v>
       </c>
       <c r="W3">
-        <v>332.43400000000003</v>
+        <v>329.93799999999999</v>
       </c>
       <c r="X3">
-        <v>332.27800000000002</v>
+        <v>329.78199999999998</v>
       </c>
       <c r="Y3">
-        <v>332.43400000000003</v>
+        <v>329.93799999999999</v>
       </c>
       <c r="Z3">
-        <v>331.96600000000001</v>
+        <v>330.09399999999999</v>
       </c>
       <c r="AA3">
-        <v>332.27800000000002</v>
+        <v>330.25</v>
       </c>
       <c r="AB3">
-        <v>332.43400000000003</v>
+        <v>330.40600000000001</v>
       </c>
       <c r="AC3">
-        <v>332.59</v>
+        <v>330.56200000000001</v>
       </c>
       <c r="AD3">
-        <v>332.74599999999998</v>
+        <v>330.71800000000002</v>
       </c>
       <c r="AE3">
-        <v>331.654</v>
+        <v>330.87400000000002</v>
       </c>
       <c r="AF3">
-        <v>331.654</v>
+        <v>331.03</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
@@ -8304,73 +8310,73 @@
         <v>93.619</v>
       </c>
       <c r="J4">
-        <v>88.619</v>
+        <v>86.619</v>
       </c>
       <c r="K4">
-        <v>87.619</v>
+        <v>85.619</v>
       </c>
       <c r="L4">
-        <v>86.619</v>
+        <v>85.619</v>
       </c>
       <c r="M4">
-        <v>86.619</v>
+        <v>85.619</v>
       </c>
       <c r="N4">
-        <v>86.619</v>
+        <v>85.619</v>
       </c>
       <c r="O4">
-        <v>81.619</v>
+        <v>79.619</v>
       </c>
       <c r="P4">
-        <v>81.619</v>
+        <v>79.619</v>
       </c>
       <c r="Q4">
-        <v>81.619</v>
+        <v>78.619</v>
       </c>
       <c r="R4">
-        <v>81.619</v>
+        <v>78.619</v>
       </c>
       <c r="S4">
-        <v>80.619</v>
+        <v>78.619</v>
       </c>
       <c r="T4">
-        <v>80.619</v>
+        <v>78.619</v>
       </c>
       <c r="U4">
-        <v>80.619</v>
+        <v>78.619</v>
       </c>
       <c r="V4">
-        <v>80.619</v>
+        <v>78.619</v>
       </c>
       <c r="W4">
-        <v>80.619</v>
+        <v>78.619</v>
       </c>
       <c r="X4">
-        <v>80.619</v>
+        <v>78.619</v>
       </c>
       <c r="Y4">
-        <v>80.619</v>
+        <v>78.619</v>
       </c>
       <c r="Z4">
-        <v>80.619</v>
+        <v>78.619</v>
       </c>
       <c r="AA4">
-        <v>80.619</v>
+        <v>78.619</v>
       </c>
       <c r="AB4">
-        <v>80.619</v>
+        <v>78.619</v>
       </c>
       <c r="AC4">
-        <v>80.619</v>
+        <v>78.619</v>
       </c>
       <c r="AD4">
-        <v>79.619</v>
+        <v>78.619</v>
       </c>
       <c r="AE4">
-        <v>79.619</v>
+        <v>78.619</v>
       </c>
       <c r="AF4">
-        <v>79.619</v>
+        <v>78.619</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
@@ -8393,82 +8399,82 @@
         <v>79.891000000000005</v>
       </c>
       <c r="G5">
-        <v>79.828000000000003</v>
+        <v>79.820999999999998</v>
       </c>
       <c r="H5">
-        <v>79.778000000000006</v>
+        <v>79.772999999999996</v>
       </c>
       <c r="I5">
-        <v>79.724999999999994</v>
+        <v>79.703000000000003</v>
       </c>
       <c r="J5">
-        <v>79.438000000000002</v>
+        <v>79.429000000000002</v>
       </c>
       <c r="K5">
-        <v>79.298000000000002</v>
+        <v>79.275999999999996</v>
       </c>
       <c r="L5">
-        <v>79.28</v>
+        <v>79.188000000000002</v>
       </c>
       <c r="M5">
-        <v>79.269000000000005</v>
+        <v>79.188000000000002</v>
       </c>
       <c r="N5">
-        <v>79.269000000000005</v>
+        <v>79.188000000000002</v>
       </c>
       <c r="O5">
-        <v>79.225999999999999</v>
+        <v>79.188000000000002</v>
       </c>
       <c r="P5">
-        <v>79.188000000000002</v>
+        <v>79.173000000000002</v>
       </c>
       <c r="Q5">
-        <v>79.188000000000002</v>
+        <v>79.173000000000002</v>
       </c>
       <c r="R5">
-        <v>79.188000000000002</v>
+        <v>79.173000000000002</v>
       </c>
       <c r="S5">
-        <v>79.188000000000002</v>
+        <v>79.171999999999997</v>
       </c>
       <c r="T5">
-        <v>79.188000000000002</v>
+        <v>79.171999999999997</v>
       </c>
       <c r="U5">
-        <v>79.188000000000002</v>
+        <v>79.162000000000006</v>
       </c>
       <c r="V5">
-        <v>79.188000000000002</v>
+        <v>79.162000000000006</v>
       </c>
       <c r="W5">
-        <v>79.188000000000002</v>
+        <v>79.162000000000006</v>
       </c>
       <c r="X5">
-        <v>79.188000000000002</v>
+        <v>79.162000000000006</v>
       </c>
       <c r="Y5">
-        <v>79.188000000000002</v>
+        <v>79.162000000000006</v>
       </c>
       <c r="Z5">
-        <v>79.096000000000004</v>
+        <v>79.081999999999994</v>
       </c>
       <c r="AA5">
-        <v>79.046000000000006</v>
+        <v>79.081999999999994</v>
       </c>
       <c r="AB5">
-        <v>79.043999999999997</v>
+        <v>79.08</v>
       </c>
       <c r="AC5">
-        <v>79.040999999999997</v>
+        <v>79.076999999999998</v>
       </c>
       <c r="AD5">
-        <v>79.040999999999997</v>
+        <v>79.076999999999998</v>
       </c>
       <c r="AE5">
-        <v>79.025999999999996</v>
+        <v>79.06</v>
       </c>
       <c r="AF5">
-        <v>79.024000000000001</v>
+        <v>78.998999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.35">
@@ -8488,85 +8494,85 @@
         <v>145.48400000000001</v>
       </c>
       <c r="F6">
-        <v>148.864</v>
+        <v>147.82900000000001</v>
       </c>
       <c r="G6">
-        <v>164.084</v>
+        <v>156.10400000000001</v>
       </c>
       <c r="H6">
-        <v>176.21899999999999</v>
+        <v>167.089</v>
       </c>
       <c r="I6">
-        <v>186.42400000000001</v>
+        <v>176.07400000000001</v>
       </c>
       <c r="J6">
-        <v>202.29900000000001</v>
+        <v>193.53399999999999</v>
       </c>
       <c r="K6">
-        <v>214.184</v>
+        <v>202.239</v>
       </c>
       <c r="L6">
-        <v>222.00899999999999</v>
+        <v>208.149</v>
       </c>
       <c r="M6">
-        <v>227.84899999999999</v>
+        <v>212.54400000000001</v>
       </c>
       <c r="N6">
-        <v>235.149</v>
+        <v>218.834</v>
       </c>
       <c r="O6">
-        <v>246.274</v>
+        <v>229.934</v>
       </c>
       <c r="P6">
-        <v>254.96899999999999</v>
+        <v>236.79400000000001</v>
       </c>
       <c r="Q6">
-        <v>262.959</v>
+        <v>243.92400000000001</v>
       </c>
       <c r="R6">
-        <v>270.18400000000003</v>
+        <v>249.809</v>
       </c>
       <c r="S6">
-        <v>278.47899999999998</v>
+        <v>255.524</v>
       </c>
       <c r="T6">
-        <v>285.76900000000001</v>
+        <v>261.25400000000002</v>
       </c>
       <c r="U6">
-        <v>292.13900000000001</v>
+        <v>266.49900000000002</v>
       </c>
       <c r="V6">
-        <v>298.73899999999998</v>
+        <v>271.70400000000001</v>
       </c>
       <c r="W6">
-        <v>305.28399999999999</v>
+        <v>276.81400000000002</v>
       </c>
       <c r="X6">
-        <v>311.714</v>
+        <v>281.85899999999998</v>
       </c>
       <c r="Y6">
-        <v>318.11399999999998</v>
+        <v>286.93900000000002</v>
       </c>
       <c r="Z6">
-        <v>324.36399999999998</v>
+        <v>291.73399999999998</v>
       </c>
       <c r="AA6">
-        <v>331.97399999999999</v>
+        <v>297.84899999999999</v>
       </c>
       <c r="AB6">
-        <v>338.19400000000002</v>
+        <v>303.44900000000001</v>
       </c>
       <c r="AC6">
-        <v>344.48399999999998</v>
+        <v>308.88900000000001</v>
       </c>
       <c r="AD6">
-        <v>351.13400000000001</v>
+        <v>313.899</v>
       </c>
       <c r="AE6">
-        <v>357.92399999999998</v>
+        <v>319.30399999999997</v>
       </c>
       <c r="AF6">
-        <v>364.99400000000003</v>
+        <v>325.39400000000001</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
@@ -8586,85 +8592,85 @@
         <v>100.98699999999999</v>
       </c>
       <c r="F7">
-        <v>107.04900000000001</v>
+        <v>106.083</v>
       </c>
       <c r="G7">
-        <v>127.80500000000001</v>
+        <v>116.15900000000001</v>
       </c>
       <c r="H7">
-        <v>141.64099999999999</v>
+        <v>128.58699999999999</v>
       </c>
       <c r="I7">
-        <v>155.20500000000001</v>
+        <v>140.51499999999999</v>
       </c>
       <c r="J7">
-        <v>178.441</v>
+        <v>166.035</v>
       </c>
       <c r="K7">
-        <v>197.291</v>
+        <v>179.857</v>
       </c>
       <c r="L7">
-        <v>211.11500000000001</v>
+        <v>190.309</v>
       </c>
       <c r="M7">
-        <v>221.66300000000001</v>
+        <v>198.26900000000001</v>
       </c>
       <c r="N7">
-        <v>235.23500000000001</v>
+        <v>209.995</v>
       </c>
       <c r="O7">
-        <v>256.267</v>
+        <v>231.059</v>
       </c>
       <c r="P7">
-        <v>272.89699999999999</v>
+        <v>244.25899999999999</v>
       </c>
       <c r="Q7">
-        <v>288.36500000000001</v>
+        <v>258.15699999999998</v>
       </c>
       <c r="R7">
-        <v>302.62700000000001</v>
+        <v>269.86099999999999</v>
       </c>
       <c r="S7">
-        <v>319.14499999999998</v>
+        <v>281.35500000000002</v>
       </c>
       <c r="T7">
-        <v>333.767</v>
+        <v>292.97699999999998</v>
       </c>
       <c r="U7">
-        <v>346.63299999999998</v>
+        <v>303.70100000000002</v>
       </c>
       <c r="V7">
-        <v>360.15300000000002</v>
+        <v>314.50900000000001</v>
       </c>
       <c r="W7">
-        <v>373.61700000000002</v>
+        <v>325.19299999999998</v>
       </c>
       <c r="X7">
-        <v>386.887</v>
+        <v>335.791</v>
       </c>
       <c r="Y7">
-        <v>400.13900000000001</v>
+        <v>346.50900000000001</v>
       </c>
       <c r="Z7">
-        <v>413.21499999999997</v>
+        <v>356.74299999999999</v>
       </c>
       <c r="AA7">
-        <v>429.14100000000002</v>
+        <v>369.81299999999999</v>
       </c>
       <c r="AB7">
-        <v>442.15699999999998</v>
+        <v>381.803</v>
       </c>
       <c r="AC7">
-        <v>455.303</v>
+        <v>393.45299999999997</v>
       </c>
       <c r="AD7">
-        <v>469.30900000000003</v>
+        <v>404.27499999999998</v>
       </c>
       <c r="AE7">
-        <v>483.58100000000002</v>
+        <v>415.95499999999998</v>
       </c>
       <c r="AF7">
-        <v>498.40899999999999</v>
+        <v>429.08699999999999</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.35">
@@ -8687,82 +8693,82 @@
         <v>1.758</v>
       </c>
       <c r="G8">
+        <v>1.9139999999999999</v>
+      </c>
+      <c r="H8">
+        <v>1.9139999999999999</v>
+      </c>
+      <c r="I8">
+        <v>1.9139999999999999</v>
+      </c>
+      <c r="J8">
         <v>2.0699999999999998</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>2.0699999999999998</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>2.0699999999999998</v>
       </c>
-      <c r="J8">
-        <v>2.226</v>
-      </c>
-      <c r="K8">
-        <v>2.226</v>
-      </c>
-      <c r="L8">
-        <v>2.226</v>
-      </c>
       <c r="M8">
-        <v>2.226</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="N8">
-        <v>2.226</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="O8">
-        <v>2.226</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="P8">
-        <v>2.226</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="Q8">
-        <v>2.226</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="R8">
-        <v>2.226</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="S8">
-        <v>2.226</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="T8">
-        <v>2.226</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="U8">
-        <v>2.226</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="V8">
-        <v>2.226</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="W8">
-        <v>2.226</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="X8">
-        <v>2.226</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="Y8">
-        <v>2.226</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="Z8">
-        <v>2.226</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="AA8">
-        <v>2.226</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="AB8">
-        <v>2.226</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="AC8">
-        <v>2.226</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="AD8">
-        <v>2.226</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="AE8">
-        <v>2.226</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="AF8">
-        <v>2.226</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.35">
@@ -8785,82 +8791,82 @@
         <v>4.9969999999999999</v>
       </c>
       <c r="G9">
+        <v>5.0149999999999997</v>
+      </c>
+      <c r="H9">
         <v>5.0330000000000004</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>5.0510000000000002</v>
-      </c>
-      <c r="I9">
-        <v>5.069</v>
       </c>
       <c r="J9">
         <v>5.0869999999999997</v>
       </c>
       <c r="K9">
-        <v>5.1050000000000004</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="L9">
-        <v>5.1050000000000004</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="M9">
-        <v>5.1050000000000004</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="N9">
-        <v>5.1050000000000004</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="O9">
-        <v>5.1050000000000004</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="P9">
-        <v>5.1050000000000004</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="Q9">
-        <v>5.1050000000000004</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="R9">
-        <v>5.1050000000000004</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="S9">
-        <v>5.1050000000000004</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="T9">
-        <v>5.1050000000000004</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="U9">
-        <v>5.1050000000000004</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="V9">
-        <v>5.1050000000000004</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="W9">
-        <v>5.1050000000000004</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="X9">
-        <v>5.1050000000000004</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="Y9">
-        <v>5.1050000000000004</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="Z9">
-        <v>5.1050000000000004</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="AA9">
-        <v>5.1050000000000004</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="AB9">
-        <v>5.1050000000000004</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="AC9">
-        <v>5.1050000000000004</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="AD9">
-        <v>5.1050000000000004</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="AE9">
-        <v>5.1050000000000004</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="AF9">
-        <v>5.1050000000000004</v>
+        <v>5.0869999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.35">
@@ -8883,82 +8889,82 @@
         <v>2.597</v>
       </c>
       <c r="G10">
-        <v>2.714</v>
+        <v>2.649</v>
       </c>
       <c r="H10">
-        <v>2.8050000000000002</v>
+        <v>2.7269999999999999</v>
       </c>
       <c r="I10">
-        <v>2.883</v>
+        <v>2.7919999999999998</v>
       </c>
       <c r="J10">
+        <v>2.9220000000000002</v>
+      </c>
+      <c r="K10">
+        <v>2.9740000000000002</v>
+      </c>
+      <c r="L10">
         <v>3</v>
       </c>
-      <c r="K10">
-        <v>3.0779999999999998</v>
-      </c>
-      <c r="L10">
+      <c r="M10">
+        <v>3.0259999999999998</v>
+      </c>
+      <c r="N10">
+        <v>3.052</v>
+      </c>
+      <c r="O10">
         <v>3.117</v>
       </c>
-      <c r="M10">
+      <c r="P10">
         <v>3.1429999999999998</v>
       </c>
-      <c r="N10">
-        <v>3.1819999999999999</v>
-      </c>
-      <c r="O10">
-        <v>3.234</v>
-      </c>
-      <c r="P10">
+      <c r="Q10">
+        <v>3.169</v>
+      </c>
+      <c r="R10">
+        <v>3.1949999999999998</v>
+      </c>
+      <c r="S10">
+        <v>3.2210000000000001</v>
+      </c>
+      <c r="T10">
+        <v>3.2469999999999999</v>
+      </c>
+      <c r="U10">
+        <v>3.26</v>
+      </c>
+      <c r="V10">
         <v>3.2730000000000001</v>
       </c>
-      <c r="Q10">
+      <c r="W10">
+        <v>3.286</v>
+      </c>
+      <c r="X10">
+        <v>3.2989999999999999</v>
+      </c>
+      <c r="Y10">
         <v>3.3119999999999998</v>
       </c>
-      <c r="R10">
+      <c r="Z10">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="AA10">
         <v>3.3380000000000001</v>
       </c>
-      <c r="S10">
+      <c r="AB10">
+        <v>3.351</v>
+      </c>
+      <c r="AC10">
+        <v>3.3639999999999999</v>
+      </c>
+      <c r="AD10">
         <v>3.3769999999999998</v>
       </c>
-      <c r="T10">
+      <c r="AE10">
+        <v>3.39</v>
+      </c>
+      <c r="AF10">
         <v>3.403</v>
-      </c>
-      <c r="U10">
-        <v>3.4289999999999998</v>
-      </c>
-      <c r="V10">
-        <v>3.4550000000000001</v>
-      </c>
-      <c r="W10">
-        <v>3.4809999999999999</v>
-      </c>
-      <c r="X10">
-        <v>3.5070000000000001</v>
-      </c>
-      <c r="Y10">
-        <v>3.5329999999999999</v>
-      </c>
-      <c r="Z10">
-        <v>3.5459999999999998</v>
-      </c>
-      <c r="AA10">
-        <v>3.5720000000000001</v>
-      </c>
-      <c r="AB10">
-        <v>3.585</v>
-      </c>
-      <c r="AC10">
-        <v>3.5979999999999999</v>
-      </c>
-      <c r="AD10">
-        <v>3.6110000000000002</v>
-      </c>
-      <c r="AE10">
-        <v>3.6240000000000001</v>
-      </c>
-      <c r="AF10">
-        <v>3.637</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.35">
@@ -8984,79 +8990,79 @@
         <v>26.425000000000001</v>
       </c>
       <c r="H11">
-        <v>26.436</v>
+        <v>26.442</v>
       </c>
       <c r="I11">
-        <v>26.456</v>
+        <v>26.466000000000001</v>
       </c>
       <c r="J11">
-        <v>26.478999999999999</v>
+        <v>26.49</v>
       </c>
       <c r="K11">
-        <v>26.501000000000001</v>
+        <v>26.509</v>
       </c>
       <c r="L11">
-        <v>26.515000000000001</v>
+        <v>26.524000000000001</v>
       </c>
       <c r="M11">
-        <v>26.527000000000001</v>
+        <v>26.536999999999999</v>
       </c>
       <c r="N11">
-        <v>26.54</v>
+        <v>26.55</v>
       </c>
       <c r="O11">
-        <v>26.547999999999998</v>
+        <v>26.556999999999999</v>
       </c>
       <c r="P11">
-        <v>26.56</v>
+        <v>26.568999999999999</v>
       </c>
       <c r="Q11">
-        <v>26.571999999999999</v>
+        <v>26.579000000000001</v>
       </c>
       <c r="R11">
-        <v>26.584</v>
+        <v>26.591000000000001</v>
       </c>
       <c r="S11">
-        <v>26.594000000000001</v>
+        <v>26.6</v>
       </c>
       <c r="T11">
-        <v>26.603999999999999</v>
+        <v>26.61</v>
       </c>
       <c r="U11">
-        <v>26.613</v>
+        <v>26.62</v>
       </c>
       <c r="V11">
-        <v>26.623000000000001</v>
+        <v>26.63</v>
       </c>
       <c r="W11">
-        <v>26.632000000000001</v>
+        <v>26.638999999999999</v>
       </c>
       <c r="X11">
-        <v>26.640999999999998</v>
+        <v>26.648</v>
       </c>
       <c r="Y11">
-        <v>26.649000000000001</v>
+        <v>26.655999999999999</v>
       </c>
       <c r="Z11">
-        <v>26.658000000000001</v>
+        <v>26.664000000000001</v>
       </c>
       <c r="AA11">
-        <v>26.667000000000002</v>
+        <v>26.672999999999998</v>
       </c>
       <c r="AB11">
-        <v>26.675000000000001</v>
+        <v>26.681000000000001</v>
       </c>
       <c r="AC11">
-        <v>26.683</v>
+        <v>26.689</v>
       </c>
       <c r="AD11">
-        <v>26.690999999999999</v>
+        <v>26.698</v>
       </c>
       <c r="AE11">
-        <v>26.7</v>
+        <v>26.706</v>
       </c>
       <c r="AF11">
-        <v>26.709</v>
+        <v>26.716000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.35">
@@ -9079,82 +9085,82 @@
         <v>133.59899999999999</v>
       </c>
       <c r="G12">
-        <v>133.649</v>
+        <v>133.54900000000001</v>
       </c>
       <c r="H12">
-        <v>138.59899999999999</v>
+        <v>140.999</v>
       </c>
       <c r="I12">
-        <v>146.69900000000001</v>
+        <v>150.54900000000001</v>
       </c>
       <c r="J12">
-        <v>155.44900000000001</v>
+        <v>159.399</v>
       </c>
       <c r="K12">
-        <v>165.649</v>
+        <v>168.249</v>
       </c>
       <c r="L12">
-        <v>173.59899999999999</v>
+        <v>176.54900000000001</v>
       </c>
       <c r="M12">
-        <v>180.649</v>
+        <v>183.399</v>
       </c>
       <c r="N12">
-        <v>187.649</v>
+        <v>189.69900000000001</v>
       </c>
       <c r="O12">
-        <v>192.19900000000001</v>
+        <v>193.499</v>
       </c>
       <c r="P12">
-        <v>199.249</v>
+        <v>199.999</v>
       </c>
       <c r="Q12">
-        <v>206.499</v>
+        <v>205.94900000000001</v>
       </c>
       <c r="R12">
-        <v>213.399</v>
+        <v>212.44900000000001</v>
       </c>
       <c r="S12">
-        <v>220.29900000000001</v>
+        <v>218.399</v>
       </c>
       <c r="T12">
-        <v>227.34899999999999</v>
+        <v>224.899</v>
       </c>
       <c r="U12">
-        <v>233.84899999999999</v>
+        <v>230.999</v>
       </c>
       <c r="V12">
-        <v>240.79900000000001</v>
+        <v>237.59899999999999</v>
       </c>
       <c r="W12">
-        <v>246.899</v>
+        <v>242.999</v>
       </c>
       <c r="X12">
-        <v>253.399</v>
+        <v>249.149</v>
       </c>
       <c r="Y12">
-        <v>259.899</v>
+        <v>255.249</v>
       </c>
       <c r="Z12">
-        <v>267.44900000000001</v>
+        <v>261.79899999999998</v>
       </c>
       <c r="AA12">
-        <v>275.09899999999999</v>
+        <v>268.649</v>
       </c>
       <c r="AB12">
-        <v>282.44900000000001</v>
+        <v>275.649</v>
       </c>
       <c r="AC12">
-        <v>290.149</v>
+        <v>282.99900000000002</v>
       </c>
       <c r="AD12">
-        <v>297.399</v>
+        <v>290.34899999999999</v>
       </c>
       <c r="AE12">
+        <v>297.59899999999999</v>
+      </c>
+      <c r="AF12">
         <v>305.649</v>
-      </c>
-      <c r="AF12">
-        <v>314.34899999999999</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.35">
@@ -9272,85 +9278,85 @@
         <v>3.9E-2</v>
       </c>
       <c r="F14">
-        <v>1.9790000000000001</v>
+        <v>1.9590000000000001</v>
       </c>
       <c r="G14">
-        <v>2.4889999999999999</v>
+        <v>2.194</v>
       </c>
       <c r="H14">
-        <v>3.0339999999999998</v>
+        <v>2.6890000000000001</v>
       </c>
       <c r="I14">
-        <v>4.7089999999999996</v>
+        <v>4.3040000000000003</v>
       </c>
       <c r="J14">
-        <v>5.3739999999999997</v>
+        <v>5.0190000000000001</v>
       </c>
       <c r="K14">
-        <v>5.6189999999999998</v>
+        <v>5.194</v>
       </c>
       <c r="L14">
-        <v>5.7690000000000001</v>
+        <v>5.3090000000000002</v>
       </c>
       <c r="M14">
-        <v>5.8840000000000003</v>
+        <v>5.3940000000000001</v>
       </c>
       <c r="N14">
-        <v>6.0339999999999998</v>
+        <v>5.5190000000000001</v>
       </c>
       <c r="O14">
-        <v>6.2690000000000001</v>
+        <v>5.7489999999999997</v>
       </c>
       <c r="P14">
-        <v>6.4539999999999997</v>
+        <v>5.8940000000000001</v>
       </c>
       <c r="Q14">
-        <v>6.6239999999999997</v>
+        <v>6.0439999999999996</v>
       </c>
       <c r="R14">
-        <v>6.7839999999999998</v>
+        <v>6.1740000000000004</v>
       </c>
       <c r="S14">
-        <v>6.9690000000000003</v>
+        <v>6.2990000000000004</v>
       </c>
       <c r="T14">
-        <v>7.1340000000000003</v>
+        <v>6.4290000000000003</v>
       </c>
       <c r="U14">
-        <v>7.2789999999999999</v>
+        <v>6.5490000000000004</v>
       </c>
       <c r="V14">
-        <v>7.4340000000000002</v>
+        <v>6.6689999999999996</v>
       </c>
       <c r="W14">
-        <v>7.5890000000000004</v>
+        <v>6.7889999999999997</v>
       </c>
       <c r="X14">
-        <v>7.7439999999999998</v>
+        <v>6.9089999999999998</v>
       </c>
       <c r="Y14">
-        <v>7.9039999999999999</v>
+        <v>7.0339999999999998</v>
       </c>
       <c r="Z14">
-        <v>8.0589999999999993</v>
+        <v>7.1539999999999999</v>
       </c>
       <c r="AA14">
-        <v>8.2490000000000006</v>
+        <v>7.3090000000000002</v>
       </c>
       <c r="AB14">
-        <v>8.4090000000000007</v>
+        <v>7.4539999999999997</v>
       </c>
       <c r="AC14">
-        <v>8.5690000000000008</v>
+        <v>7.5940000000000003</v>
       </c>
       <c r="AD14">
-        <v>8.7439999999999998</v>
+        <v>7.7240000000000002</v>
       </c>
       <c r="AE14">
-        <v>8.9239999999999995</v>
+        <v>7.8639999999999999</v>
       </c>
       <c r="AF14">
-        <v>9.109</v>
+        <v>8.0239999999999991</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.35">
@@ -9581,70 +9587,70 @@
         <v>1.92</v>
       </c>
       <c r="K17">
+        <v>1.9359999999999999</v>
+      </c>
+      <c r="L17">
         <v>1.952</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1.968</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1.984</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>2</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>2.016</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>2.032</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>2.048</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>2.0640000000000001</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>2.08</v>
       </c>
-      <c r="T17">
-        <v>2.0960000000000001</v>
-      </c>
       <c r="U17">
-        <v>2.0960000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="V17">
-        <v>2.0960000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="W17">
-        <v>2.0960000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="X17">
-        <v>2.0960000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="Y17">
-        <v>2.0960000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="Z17">
-        <v>2.0960000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="AA17">
-        <v>2.0960000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="AB17">
-        <v>2.0960000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="AC17">
-        <v>2.0960000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="AD17">
-        <v>2.0960000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="AE17">
-        <v>2.0960000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="AF17">
-        <v>2.0960000000000001</v>
+        <v>2.08</v>
       </c>
     </row>
   </sheetData>
@@ -9656,7 +9662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F4A00D-FEE1-4109-9021-DF78FFA4A8D5}">
   <dimension ref="A1:AF49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:AF49"/>
     </sheetView>
   </sheetViews>
@@ -9771,7 +9777,7 @@
         <v>3854.4</v>
       </c>
       <c r="C2">
-        <v>3854.4</v>
+        <v>4084.67</v>
       </c>
       <c r="D2">
         <v>3854.4</v>
@@ -9967,7 +9973,7 @@
         <v>4239.84</v>
       </c>
       <c r="C4">
-        <v>4239.84</v>
+        <v>4493.1400000000003</v>
       </c>
       <c r="D4">
         <v>4239.84</v>
@@ -10947,94 +10953,94 @@
         <v>3047.38</v>
       </c>
       <c r="C14">
-        <v>3038.14</v>
+        <v>3038.13</v>
       </c>
       <c r="D14">
-        <v>3029.17</v>
+        <v>3029.15</v>
       </c>
       <c r="E14">
-        <v>3025.37</v>
+        <v>3025.35</v>
       </c>
       <c r="F14">
-        <v>3023.83</v>
+        <v>3023.79</v>
       </c>
       <c r="G14">
-        <v>3022.98</v>
+        <v>3023.69</v>
       </c>
       <c r="H14">
-        <v>3012.73</v>
+        <v>3018.59</v>
       </c>
       <c r="I14">
-        <v>3008.33</v>
+        <v>3016.36</v>
       </c>
       <c r="J14">
-        <v>3008.2</v>
+        <v>3017.38</v>
       </c>
       <c r="K14">
-        <v>3003.77</v>
+        <v>3011.77</v>
       </c>
       <c r="L14">
-        <v>3003.41</v>
+        <v>3012.27</v>
       </c>
       <c r="M14">
-        <v>3004.03</v>
+        <v>3013.78</v>
       </c>
       <c r="N14">
-        <v>3006.23</v>
+        <v>3016.18</v>
       </c>
       <c r="O14">
-        <v>3006.54</v>
+        <v>3016.36</v>
       </c>
       <c r="P14">
-        <v>3003.68</v>
+        <v>3013.05</v>
       </c>
       <c r="Q14">
-        <v>3003.86</v>
+        <v>3013.59</v>
       </c>
       <c r="R14">
-        <v>3003.9</v>
+        <v>3013.18</v>
       </c>
       <c r="S14">
-        <v>3004.28</v>
+        <v>3013.73</v>
       </c>
       <c r="T14">
-        <v>3004.08</v>
+        <v>3014.1</v>
       </c>
       <c r="U14">
-        <v>3004.64</v>
+        <v>3014.82</v>
       </c>
       <c r="V14">
-        <v>3005.13</v>
+        <v>3015.36</v>
       </c>
       <c r="W14">
-        <v>3005.81</v>
+        <v>3016.2</v>
       </c>
       <c r="X14">
-        <v>3006.22</v>
+        <v>3016.67</v>
       </c>
       <c r="Y14">
-        <v>3007.22</v>
+        <v>3017.77</v>
       </c>
       <c r="Z14">
-        <v>3007.59</v>
+        <v>3018.27</v>
       </c>
       <c r="AA14">
-        <v>3008.38</v>
+        <v>3019</v>
       </c>
       <c r="AB14">
-        <v>3008.75</v>
+        <v>3019.38</v>
       </c>
       <c r="AC14">
-        <v>3009.25</v>
+        <v>3019.73</v>
       </c>
       <c r="AD14">
-        <v>3010.01</v>
+        <v>3020.39</v>
       </c>
       <c r="AE14">
-        <v>3010.88</v>
+        <v>3021.57</v>
       </c>
       <c r="AF14">
-        <v>3011.59</v>
+        <v>3022.18</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.35">
@@ -11140,97 +11146,97 @@
         <v>291</v>
       </c>
       <c r="B16">
-        <v>3461.76</v>
+        <v>3461.75</v>
       </c>
       <c r="C16">
-        <v>3477.08</v>
+        <v>3477.07</v>
       </c>
       <c r="D16">
-        <v>3492.55</v>
+        <v>3492.53</v>
       </c>
       <c r="E16">
-        <v>3513.89</v>
+        <v>3513.86</v>
       </c>
       <c r="F16">
-        <v>3537.79</v>
+        <v>3537.75</v>
       </c>
       <c r="G16">
-        <v>3553.93</v>
+        <v>3554.77</v>
       </c>
       <c r="H16">
-        <v>3567.48</v>
+        <v>3574.43</v>
       </c>
       <c r="I16">
-        <v>3587.84</v>
+        <v>3597.41</v>
       </c>
       <c r="J16">
-        <v>3613.25</v>
+        <v>3624.28</v>
       </c>
       <c r="K16">
-        <v>3633.45</v>
+        <v>3643.13</v>
       </c>
       <c r="L16">
-        <v>3658.55</v>
+        <v>3669.34</v>
       </c>
       <c r="M16">
-        <v>3667.8</v>
+        <v>3679.72</v>
       </c>
       <c r="N16">
-        <v>3670.5</v>
+        <v>3682.64</v>
       </c>
       <c r="O16">
-        <v>3679.4</v>
+        <v>3691.41</v>
       </c>
       <c r="P16">
-        <v>3684.41</v>
+        <v>3695.9</v>
       </c>
       <c r="Q16">
-        <v>3693.13</v>
+        <v>3705.09</v>
       </c>
       <c r="R16">
-        <v>3693.18</v>
+        <v>3704.59</v>
       </c>
       <c r="S16">
-        <v>3702.15</v>
+        <v>3713.81</v>
       </c>
       <c r="T16">
-        <v>3710.42</v>
+        <v>3722.79</v>
       </c>
       <c r="U16">
-        <v>3719.62</v>
+        <v>3732.23</v>
       </c>
       <c r="V16">
-        <v>3720.23</v>
+        <v>3732.89</v>
       </c>
       <c r="W16">
-        <v>3729.59</v>
+        <v>3742.47</v>
       </c>
       <c r="X16">
-        <v>3738.61</v>
+        <v>3751.61</v>
       </c>
       <c r="Y16">
-        <v>3748.38</v>
+        <v>3761.53</v>
       </c>
       <c r="Z16">
-        <v>3748.84</v>
+        <v>3762.15</v>
       </c>
       <c r="AA16">
-        <v>3758.35</v>
+        <v>3771.61</v>
       </c>
       <c r="AB16">
-        <v>3767.33</v>
+        <v>3780.64</v>
       </c>
       <c r="AC16">
-        <v>3776.49</v>
+        <v>3789.64</v>
       </c>
       <c r="AD16">
-        <v>3777.43</v>
+        <v>3790.47</v>
       </c>
       <c r="AE16">
-        <v>3787.06</v>
+        <v>3800.5</v>
       </c>
       <c r="AF16">
-        <v>3796.48</v>
+        <v>3809.83</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.35">
@@ -11241,94 +11247,94 @@
         <v>2103.9299999999998</v>
       </c>
       <c r="C17">
-        <v>2097.9</v>
+        <v>2097.92</v>
       </c>
       <c r="D17">
-        <v>2089.8000000000002</v>
+        <v>2089.9299999999998</v>
       </c>
       <c r="E17">
-        <v>2078.46</v>
+        <v>2078.75</v>
       </c>
       <c r="F17">
-        <v>2068.66</v>
+        <v>2069.08</v>
       </c>
       <c r="G17">
-        <v>2064.5100000000002</v>
+        <v>2065.63</v>
       </c>
       <c r="H17">
-        <v>2052.2399999999998</v>
+        <v>2059.5100000000002</v>
       </c>
       <c r="I17">
-        <v>2046.65</v>
+        <v>2056.11</v>
       </c>
       <c r="J17">
-        <v>2043.81</v>
+        <v>2054.67</v>
       </c>
       <c r="K17">
-        <v>2035.6</v>
+        <v>2045.67</v>
       </c>
       <c r="L17">
-        <v>2031.26</v>
+        <v>2043.08</v>
       </c>
       <c r="M17">
-        <v>2028.22</v>
+        <v>2041.87</v>
       </c>
       <c r="N17">
-        <v>2027.46</v>
+        <v>2042.02</v>
       </c>
       <c r="O17">
-        <v>2024.2</v>
+        <v>2039.38</v>
       </c>
       <c r="P17">
-        <v>2016.27</v>
+        <v>2031.62</v>
       </c>
       <c r="Q17">
-        <v>2012.54</v>
+        <v>2029.24</v>
       </c>
       <c r="R17">
-        <v>2008.6</v>
+        <v>2025.52</v>
       </c>
       <c r="S17">
-        <v>2005.26</v>
+        <v>2023.19</v>
       </c>
       <c r="T17">
-        <v>2001</v>
+        <v>2020.76</v>
       </c>
       <c r="U17">
-        <v>1998</v>
+        <v>2018.82</v>
       </c>
       <c r="V17">
-        <v>1995.15</v>
+        <v>2016.77</v>
       </c>
       <c r="W17">
-        <v>1992.54</v>
+        <v>2015.05</v>
       </c>
       <c r="X17">
-        <v>1989.49</v>
+        <v>2012.83</v>
       </c>
       <c r="Y17">
-        <v>1987.45</v>
+        <v>2011.6</v>
       </c>
       <c r="Z17">
-        <v>1984.54</v>
+        <v>2009.56</v>
       </c>
       <c r="AA17">
-        <v>1982.31</v>
+        <v>2007.92</v>
       </c>
       <c r="AB17">
-        <v>1979.13</v>
+        <v>2005.57</v>
       </c>
       <c r="AC17">
-        <v>1976.49</v>
+        <v>2003.29</v>
       </c>
       <c r="AD17">
-        <v>1974.27</v>
+        <v>2001.6</v>
       </c>
       <c r="AE17">
-        <v>1972.28</v>
+        <v>2000.89</v>
       </c>
       <c r="AF17">
-        <v>1970.1</v>
+        <v>1999.24</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.35">
@@ -11437,94 +11443,94 @@
         <v>2112.63</v>
       </c>
       <c r="C19">
-        <v>2123.91</v>
+        <v>2123.9299999999998</v>
       </c>
       <c r="D19">
-        <v>2132.98</v>
+        <v>2133.11</v>
       </c>
       <c r="E19">
-        <v>2138.58</v>
+        <v>2138.87</v>
       </c>
       <c r="F19">
-        <v>2154.14</v>
+        <v>2154.58</v>
       </c>
       <c r="G19">
-        <v>2166.89</v>
+        <v>2168.06</v>
       </c>
       <c r="H19">
-        <v>2170.96</v>
+        <v>2178.66</v>
       </c>
       <c r="I19">
-        <v>2190.4299999999998</v>
+        <v>2200.54</v>
       </c>
       <c r="J19">
-        <v>2204.27</v>
+        <v>2215.98</v>
       </c>
       <c r="K19">
-        <v>2212.2399999999998</v>
+        <v>2223.1799999999998</v>
       </c>
       <c r="L19">
-        <v>2232.71</v>
+        <v>2245.6999999999998</v>
       </c>
       <c r="M19">
-        <v>2237.75</v>
+        <v>2252.81</v>
       </c>
       <c r="N19">
-        <v>2245.2800000000002</v>
+        <v>2261.41</v>
       </c>
       <c r="O19">
-        <v>2250.0500000000002</v>
+        <v>2266.92</v>
       </c>
       <c r="P19">
-        <v>2249.5500000000002</v>
+        <v>2266.69</v>
       </c>
       <c r="Q19">
-        <v>2253.71</v>
+        <v>2272.42</v>
       </c>
       <c r="R19">
-        <v>2257.6</v>
+        <v>2276.62</v>
       </c>
       <c r="S19">
-        <v>2262.13</v>
+        <v>2282.36</v>
       </c>
       <c r="T19">
-        <v>2265.59</v>
+        <v>2287.96</v>
       </c>
       <c r="U19">
-        <v>2270.46</v>
+        <v>2294.12</v>
       </c>
       <c r="V19">
-        <v>2275.46</v>
+        <v>2300.11</v>
       </c>
       <c r="W19">
-        <v>2280.71</v>
+        <v>2306.48</v>
       </c>
       <c r="X19">
-        <v>2285.4499999999998</v>
+        <v>2312.2600000000002</v>
       </c>
       <c r="Y19">
-        <v>2291.3200000000002</v>
+        <v>2319.16</v>
       </c>
       <c r="Z19">
-        <v>2296.17</v>
+        <v>2325.11</v>
       </c>
       <c r="AA19">
-        <v>2301.77</v>
+        <v>2331.5100000000002</v>
       </c>
       <c r="AB19">
-        <v>2306.2600000000002</v>
+        <v>2337.0700000000002</v>
       </c>
       <c r="AC19">
-        <v>2311.35</v>
+        <v>2342.69</v>
       </c>
       <c r="AD19">
-        <v>2316.91</v>
+        <v>2348.9899999999998</v>
       </c>
       <c r="AE19">
-        <v>2322.7199999999998</v>
+        <v>2356.42</v>
       </c>
       <c r="AF19">
-        <v>2328.29</v>
+        <v>2362.7399999999998</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.35">
@@ -13005,7 +13011,7 @@
         <v>6640.08</v>
       </c>
       <c r="C35">
-        <v>6640.08</v>
+        <v>7036.78</v>
       </c>
       <c r="D35">
         <v>6640.08</v>
@@ -13201,7 +13207,7 @@
         <v>7305.84</v>
       </c>
       <c r="C37">
-        <v>7305.84</v>
+        <v>7742.31</v>
       </c>
       <c r="D37">
         <v>7305.84</v>
@@ -14474,13 +14480,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2F2634-68D9-4A99-92F0-3688E66AA3CB}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1">
@@ -14495,12 +14504,12 @@
         <v>325</v>
       </c>
       <c r="B2">
-        <f>'STEO 7d'!J9/(SUM(Capacity!B2*'Capacity Factors'!B2,Capacity!B13*'Capacity Factors'!B35))*1000</f>
-        <v>0.8940388967769245</v>
+        <f>'STEO 7d'!J9/(SUM(Capacity!B2*'Capacity Factors'!B2,Capacity!B13*'Capacity Factors'!B35))*1000*B5</f>
+        <v>0.82698597951865516</v>
       </c>
       <c r="C2">
         <f>'STEO 7d'!K9/(SUM(Capacity!C2*'Capacity Factors'!C2,Capacity!C13*'Capacity Factors'!C35))*1000</f>
-        <v>1.0597433184427261</v>
+        <v>1.0000010797726713</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -14508,12 +14517,28 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <f>B2</f>
-        <v>0.8940388967769245</v>
+        <f>'STEO 7d'!J9/(SUM(Capacity!B2*'Capacity Factors'!B2,Capacity!B13*'Capacity Factors'!B35))*1000*B6</f>
+        <v>0.71523111742153966</v>
       </c>
       <c r="C3">
         <f>C2</f>
-        <v>1.0597433184427261</v>
+        <v>1.0000010797726713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -14672,11 +14697,11 @@
       </c>
       <c r="G2">
         <f>'2020 Calculations'!B2</f>
-        <v>0.8940388967769245</v>
+        <v>0.82698597951865516</v>
       </c>
       <c r="H2">
         <f>'2020 Calculations'!C2</f>
-        <v>1.0597433184427261</v>
+        <v>1.0000010797726713</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -16228,11 +16253,11 @@
       </c>
       <c r="G13">
         <f>'2020 Calculations'!B3</f>
-        <v>0.8940388967769245</v>
+        <v>0.71523111742153966</v>
       </c>
       <c r="H13">
         <f>'2020 Calculations'!C3</f>
-        <v>1.0597433184427261</v>
+        <v>1.0000010797726713</v>
       </c>
       <c r="I13">
         <v>0</v>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0533CB9-F848-4B7A-8C34-704F27035DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB1BF7A-AF18-46D6-AD11-ACCE60D44E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18615" yWindow="2085" windowWidth="29370" windowHeight="20865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13440" yWindow="1365" windowWidth="29370" windowHeight="20865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1088,7 +1088,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1106,7 +1106,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -6340,7 +6339,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>289</v>
       </c>
       <c r="B1" t="s">
@@ -8180,15 +8179,15 @@
       <c r="A23" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23">
         <f>SUMIFS(C$2:C$18,$A$2:$A$18,$A23)/10^6</f>
         <v>1423.79367</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23">
         <f t="shared" ref="C23:D23" si="0">SUMIFS(D$2:D$18,$A$2:$A$18,$A23)/10^6</f>
         <v>1380.1169600000001</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23">
         <f t="shared" si="0"/>
         <v>1327.7883099999999</v>
       </c>
@@ -8197,15 +8196,15 @@
       <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24">
         <f t="shared" ref="B24:D35" si="1">SUMIFS(C$2:C$18,$A$2:$A$18,$A24)/10^6</f>
         <v>893.91160000000002</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24">
         <f t="shared" si="1"/>
         <v>935.76189999999997</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24">
         <f t="shared" si="1"/>
         <v>893.20590000000004</v>
       </c>
@@ -8214,15 +8213,15 @@
       <c r="A25" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25">
         <f t="shared" si="1"/>
         <v>804.06299999999999</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25">
         <f t="shared" si="1"/>
         <v>804.06299999999999</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25">
         <f t="shared" si="1"/>
         <v>808.22400000000005</v>
       </c>
@@ -8231,15 +8230,15 @@
       <c r="A26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8248,15 +8247,15 @@
       <c r="A27" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27">
         <f t="shared" si="1"/>
         <v>282.77999999999997</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27">
         <f t="shared" si="1"/>
         <v>283.12799999999999</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27">
         <f t="shared" si="1"/>
         <v>283.18400000000003</v>
       </c>
@@ -8265,15 +8264,15 @@
       <c r="A28" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28">
         <f t="shared" si="1"/>
         <v>401.88924600000001</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28">
         <f t="shared" si="1"/>
         <v>458.27236499999998</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28">
         <f t="shared" si="1"/>
         <v>488.39535100000001</v>
       </c>
@@ -8282,15 +8281,15 @@
       <c r="A29" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29">
         <f t="shared" si="1"/>
         <v>124.22653</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29">
         <f t="shared" si="1"/>
         <v>172.06853000000001</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29">
         <f t="shared" si="1"/>
         <v>230.50153</v>
       </c>
@@ -8299,15 +8298,15 @@
       <c r="A30" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30">
         <f t="shared" si="1"/>
         <v>3.3512</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30">
         <f t="shared" si="1"/>
         <v>22.730399999999999</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30">
         <f t="shared" si="1"/>
         <v>42.8992</v>
       </c>
@@ -8316,15 +8315,15 @@
       <c r="A31" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31">
         <f t="shared" si="1"/>
         <v>9.3732000000000006</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31">
         <f t="shared" si="1"/>
         <v>9.5554100000000002</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31">
         <f t="shared" si="1"/>
         <v>9.7376199999999997</v>
       </c>
@@ -8333,15 +8332,15 @@
       <c r="A32" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8350,15 +8349,15 @@
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8367,15 +8366,15 @@
       <c r="A34" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8384,15 +8383,15 @@
       <c r="A35" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35">
         <f t="shared" si="1"/>
         <v>15.4153</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35">
         <f t="shared" si="1"/>
         <v>15.415800000000001</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35">
         <f t="shared" si="1"/>
         <v>15.415800000000001</v>
       </c>
@@ -10179,7 +10178,7 @@
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>308</v>
       </c>
     </row>
@@ -11964,7 +11963,7 @@
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>326</v>
       </c>
     </row>
@@ -14286,11 +14285,11 @@
       </c>
       <c r="B2">
         <f>'STEO 7d'!J$9/(SUM(Capacity!B$2/1000*'Capacity Factors'!B$22,Capacity!B$14/1000*'Capacity Factors'!B$34))*1000*B5</f>
-        <v>0.80449728253770403</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <f>'STEO 7d'!K$9/(SUM(Capacity!C$2/1000*'Capacity Factors'!C$22,Capacity!C$14/1000*'Capacity Factors'!C$34))*1000*C5</f>
-        <v>0.95401995059599998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -14299,11 +14298,11 @@
       </c>
       <c r="B3">
         <f>'STEO 7d'!J$9/(SUM(Capacity!B$2/1000*'Capacity Factors'!B$22,Capacity!B$14/1000*'Capacity Factors'!B$34))*1000*B6</f>
-        <v>0.80449728253770403</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <f>'STEO 7d'!K$9/(SUM(Capacity!C$2/1000*'Capacity Factors'!C$22,Capacity!C$14/1000*'Capacity Factors'!C$34))*1000*C6</f>
-        <v>0.95401995059599998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -14311,10 +14310,10 @@
         <v>268</v>
       </c>
       <c r="B5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -14322,10 +14321,10 @@
         <v>268</v>
       </c>
       <c r="B6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14482,11 +14481,11 @@
       </c>
       <c r="G2">
         <f>'2020 Calculations'!B2</f>
-        <v>0.80449728253770403</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f>'2020 Calculations'!C2</f>
-        <v>0.95401995059599998</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -16179,11 +16178,11 @@
       </c>
       <c r="G14">
         <f>'2020 Calculations'!B3</f>
-        <v>0.80449728253770403</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <f>'2020 Calculations'!C3</f>
-        <v>0.95401995059599998</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB1BF7A-AF18-46D6-AD11-ACCE60D44E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93718E2E-F7ED-46C1-AC90-A166D37C74FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="1365" windowWidth="29370" windowHeight="20865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1449,7 +1449,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -14339,7 +14341,9 @@
   </sheetPr>
   <dimension ref="A1:AK18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:K11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14890,140 +14894,139 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -15760,11 +15763,9 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L11">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD4B654-4476-4CE6-9563-A72ABAD410AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB7B88C-C9BA-4075-8BAD-B4619D101FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="41430" windowHeight="17940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Notes:</t>
   </si>
@@ -192,6 +192,24 @@
   </si>
   <si>
     <t>we use guaranteed dispatch to align modeled petroleum dispatch with real-world experience.</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
   </si>
 </sst>
 </file>
@@ -280,9 +298,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -320,9 +338,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,26 +373,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,26 +408,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -602,7 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2483,9 +2467,11 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK18"/>
+  <dimension ref="A1:AK24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2784,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="J2:AK10" si="1">$B3</f>
+        <f t="shared" ref="J3:AK10" si="1">$B3</f>
         <v>0</v>
       </c>
       <c r="T3">
@@ -4926,6 +4912,684 @@
       </c>
       <c r="AK18">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB7B88C-C9BA-4075-8BAD-B4619D101FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C675A6B7-1944-4BEB-ADA5-F2D2872020CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Notes:</t>
   </si>
@@ -209,14 +209,17 @@
     <t>small modular reactor</t>
   </si>
   <si>
-    <t>hydrogen</t>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +239,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -267,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -279,6 +289,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2467,10 +2480,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK24"/>
+  <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:AK25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5481,7 +5494,7 @@
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B24">
@@ -5590,6 +5603,119 @@
         <v>0</v>
       </c>
       <c r="AK24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C675A6B7-1944-4BEB-ADA5-F2D2872020CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB189523-7579-4160-B2F5-DB3ADF084D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -599,7 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2482,8 +2482,8 @@
   </sheetPr>
   <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:AK25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:AK22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4933,112 +4933,112 @@
         <v>53</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
@@ -5046,112 +5046,112 @@
         <v>54</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
@@ -5159,112 +5159,112 @@
         <v>55</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
@@ -5272,112 +5272,112 @@
         <v>56</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
